--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV_BR_Scripts\BRPoSh\BR_Mailer\J040_COM_EST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J040_COM_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="232">
   <si>
     <t>msg</t>
   </si>
@@ -78,637 +78,643 @@
     <t>Stephane.Fortier@henryschein.ca</t>
   </si>
   <si>
+    <t>Stephane.Morneau@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rocky.Tummillo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Daniel.Gauvin@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Stephane.Belanger@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Francois.Beauchamp@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Stephen.Mitton@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Emil.Filev@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Fatos.Terova@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Steve.Cloutier@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Stan.Sharivker@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Serge.Gaudet@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Shane.Ulbl@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Arvin.Yanes@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kimball.Morrison@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Pierre.Laliberte@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mark.Moore@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Chad.Pelletier@henryschein.ca</t>
+  </si>
+  <si>
+    <t>John.McGuire@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Roger.Birdsell@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Greg.Budgell@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Darek.Zemetro@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jason.Bechard@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kevin.Sakell@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jamie.Chiasson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ian.Walker@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Eric.Vigneault@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Karl.Lambert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Andre.Roy@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ciro.Mantilla@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Shawn.Hunter@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Martin.Schneider@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dan.Boyko@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ian.Shypanski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dave.Williams@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ray.Gauvin@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Gerrit.Vandenberg@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mike.Thomson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Richard.West@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Terry.Hollman@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Wayne.Sakowsky@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mike.Tassie@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jeff.Blackett@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dino.Lisi@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alfred.Karba@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Leon.Hall@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Paul.Macdougall@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jason.Polnau@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alex.Szostakowski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>John.Goodwin@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Cory.Shumila@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Yanick.deMontigny@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Carl.Donohue@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Charles.Gilbert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Lyndon.Perrault@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Nathan.Piepgrass@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Robert.Shandro@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ian.Colgur@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Richard.Peddle@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alexander.Salarda@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mitchell.Rasmussen@Henryschein.ca</t>
+  </si>
+  <si>
+    <t>Graham.Mann@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Daniel.Nicholaichuk@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Babar.Memon@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Martin.David@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Keegan.Dunn@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Frank.Pedersen@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Peter.Muscat@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mark.Carten@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rene.Erskine@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michael.Vaillancourt@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Peter.Morris@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Justin.Branco@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Robert.Cluett@henryschein.ca</t>
+  </si>
+  <si>
+    <t>David.Doucette@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michael.Johnston@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Shawn.Soucy@henryschein.ca</t>
+  </si>
+  <si>
+    <t>C.David.Pollard@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Nicolas.Deschenes@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Andre.Fillion@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michel.Garant@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mario.Gariepy@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ivan.Sonicki@henryschein.ca</t>
+  </si>
+  <si>
+    <t>William.Brisson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dave.Lucas@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michael.Luck@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Bradley.Robinson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dexter.Baboolal@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dan.Chaohan@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Brian.Cummings@henryschein.ca</t>
+  </si>
+  <si>
+    <t>David.Dabideen@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Doug.Harvey@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Efrem.Samaroo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>James.Fyles@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Frank.Curley@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Scott.Mildenberger@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ed.Smith@henryschein.ca</t>
+  </si>
+  <si>
+    <t>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm</t>
+  </si>
+  <si>
+    <t>ETU_MSG_EST_Comm.htm</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>Xavier.Bourret@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Omar.Alrayiss@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Raymond.Vanneste@henryschein.ca</t>
+  </si>
+  <si>
     <t>Todd.Reynolds@henryschein.ca</t>
   </si>
   <si>
-    <t>Stephane.Morneau@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Rocky.Tummillo@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Daniel.Gauvin@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Stephane.Belanger@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Francois.Beauchamp@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Stephen.Mitton@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Emil.Filev@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Fatos.Terova@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Steve.Cloutier@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Stan.Sharivker@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Serge.Gaudet@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Shane.Ulbl@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Arvin.Yanes@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Kimball.Morrison@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Pierre.Laliberte@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mark.Moore@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Chad.Pelletier@henryschein.ca</t>
-  </si>
-  <si>
-    <t>John.McGuire@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Roger.Birdsell@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Greg.Budgell@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Darek.Zemetro@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jason.Bechard@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Kevin.Sakell@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jamie.Chiasson@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ian.Walker@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Eric.Vigneault@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Xavier.Bourret@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Karl.Lambert@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Andre.Roy@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ciro.Mantilla@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Shawn.Hunter@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Martin.Schneider@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dan.Boyko@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ian.Shypanski@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dave.Williams@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ray.Gauvin@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Gerrit.Vandenberg@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mike.Thomson@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Richard.West@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Terry.Hollman@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Wayne.Sakowsky@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mike.Tassie@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jeff.Blackett@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dino.Lisi@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Alfred.Karba@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Leon.Hall@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Paul.Macdougall@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Jason.Polnau@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Alex.Szostakowski@henryschein.ca</t>
-  </si>
-  <si>
-    <t>John.Goodwin@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Cory.Shumila@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Yanick.deMontigny@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Carl.Donohue@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Charles.Gilbert@henryschein.ca</t>
-  </si>
-  <si>
     <t>Rick.Stamm@henryschein.ca</t>
   </si>
   <si>
-    <t>Lyndon.Perrault@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Nathan.Piepgrass@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Robert.Shandro@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ian.Colgur@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Richard.Peddle@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Alexander.Salarda@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mitchell.Rasmussen@Henryschein.ca</t>
-  </si>
-  <si>
-    <t>Graham.Mann@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Daniel.Nicholaichuk@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Babar.Memon@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Martin.David@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Keegan.Dunn@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Omar.Alrayiss@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Frank.Pedersen@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Peter.Muscat@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mark.Carten@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Rene.Erskine@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Michael.Vaillancourt@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Peter.Morris@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Justin.Branco@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Robert.Cluett@henryschein.ca</t>
-  </si>
-  <si>
-    <t>David.Doucette@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Michael.Johnston@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Shawn.Soucy@henryschein.ca</t>
-  </si>
-  <si>
-    <t>C.David.Pollard@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Nicolas.Deschenes@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Andre.Fillion@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Michel.Garant@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Mario.Gariepy@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ivan.Sonicki@henryschein.ca</t>
-  </si>
-  <si>
-    <t>William.Brisson@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dave.Lucas@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Michael.Luck@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Bradley.Robinson@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Eddie.Nguyen@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dexter.Baboolal@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Dan.Chaohan@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Brian.Cummings@henryschein.ca</t>
-  </si>
-  <si>
-    <t>David.Dabideen@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Doug.Harvey@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Efrem.Samaroo@henryschein.ca</t>
-  </si>
-  <si>
-    <t>James.Fyles@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Frank.Curley@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Scott.Mildenberger@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Ed.Smith@henryschein.ca</t>
-  </si>
-  <si>
-    <t>EST Commission Summary for March 2017</t>
-  </si>
-  <si>
-    <t>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm</t>
-  </si>
-  <si>
-    <t>201703_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_20404_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51409_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51424_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41621_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78021_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51913_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41679_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51914_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51901_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_60404_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41611_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_30618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201703_70902_ESTCommissionStatement.pdf</t>
+    <t>201708_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_20404_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51409_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51424_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41621_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78021_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51443_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51913_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41679_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51914_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_61309_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51901_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41611_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_30618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201708_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for August 2017</t>
   </si>
 </sst>
 </file>
@@ -1067,7 +1073,7 @@
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="3.28515625" customWidth="1"/>
-    <col min="7" max="7" width="21.28515625" customWidth="1"/>
+    <col min="7" max="7" width="52.140625" customWidth="1"/>
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
@@ -1103,7 +1109,10 @@
       <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="J1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" t="s">
         <v>10</v>
       </c>
       <c r="L1" s="1" t="s">
@@ -1117,9 +1126,12 @@
       <c r="B2" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="C2" t="s">
+        <v>116</v>
+      </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>EST Commission Summary for March 2017</v>
+        <v>EST Commission Summary for August 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1129,7 +1141,7 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="str">
         <f>K3</f>
@@ -1137,7 +1149,7 @@
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201703_61313_ESTCommissionStatement.pdf</v>
+        <v>201708_61313_ESTCommissionStatement.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1145,8 +1157,11 @@
       <c r="B3" t="s">
         <v>13</v>
       </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1156,13 +1171,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L3" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1170,8 +1185,11 @@
       <c r="B4" t="s">
         <v>14</v>
       </c>
+      <c r="C4" t="s">
+        <v>116</v>
+      </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1181,13 +1199,13 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L4" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1195,8 +1213,11 @@
       <c r="B5" t="s">
         <v>15</v>
       </c>
+      <c r="C5" t="s">
+        <v>116</v>
+      </c>
       <c r="D5" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1206,13 +1227,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1220,8 +1241,11 @@
       <c r="B6" t="s">
         <v>16</v>
       </c>
+      <c r="C6" t="s">
+        <v>116</v>
+      </c>
       <c r="D6" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1231,13 +1255,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1245,8 +1269,11 @@
       <c r="B7" t="s">
         <v>17</v>
       </c>
+      <c r="C7" t="s">
+        <v>116</v>
+      </c>
       <c r="D7" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1256,13 +1283,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1270,8 +1297,11 @@
       <c r="B8" t="s">
         <v>18</v>
       </c>
+      <c r="C8" t="s">
+        <v>116</v>
+      </c>
       <c r="D8" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1281,22 +1311,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>121</v>
+      </c>
+      <c r="C9" t="s">
+        <v>116</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1306,22 +1339,25 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>116</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1331,22 +1367,25 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="C11" t="s">
+        <v>116</v>
       </c>
       <c r="D11" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1356,22 +1395,25 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_20404_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20404_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1381,22 +1423,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>22</v>
+      </c>
+      <c r="C13" t="s">
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1406,22 +1451,25 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>116</v>
       </c>
       <c r="D14" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1431,22 +1479,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51409_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51409_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>116</v>
       </c>
       <c r="D15" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1456,22 +1507,25 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>26</v>
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>116</v>
       </c>
       <c r="D16" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1481,22 +1535,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>116</v>
       </c>
       <c r="D17" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1506,22 +1563,25 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>116</v>
       </c>
       <c r="D18" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1531,22 +1591,25 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51424_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51424_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>29</v>
+        <v>28</v>
+      </c>
+      <c r="C19" t="s">
+        <v>116</v>
       </c>
       <c r="D19" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1556,21 +1619,24 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="C20" t="s">
+        <v>116</v>
       </c>
       <c r="D20" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1580,21 +1646,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>116</v>
       </c>
       <c r="D21" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1604,21 +1673,24 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>31</v>
+      </c>
+      <c r="C22" t="s">
+        <v>116</v>
       </c>
       <c r="D22" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1628,21 +1700,24 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L22" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="C23" t="s">
+        <v>116</v>
       </c>
       <c r="D23" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1652,21 +1727,24 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="C24" t="s">
+        <v>116</v>
       </c>
       <c r="D24" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1676,21 +1754,24 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>35</v>
+        <v>34</v>
+      </c>
+      <c r="C25" t="s">
+        <v>116</v>
       </c>
       <c r="D25" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1700,21 +1781,24 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+      <c r="C26" t="s">
+        <v>116</v>
       </c>
       <c r="D26" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1724,21 +1808,24 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>37</v>
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>116</v>
       </c>
       <c r="D27" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1748,21 +1835,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41621_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41621_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>38</v>
+        <v>37</v>
+      </c>
+      <c r="C28" t="s">
+        <v>116</v>
       </c>
       <c r="D28" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1772,21 +1862,24 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>39</v>
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
+        <v>116</v>
       </c>
       <c r="D29" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1796,21 +1889,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>40</v>
+        <v>39</v>
+      </c>
+      <c r="C30" t="s">
+        <v>116</v>
       </c>
       <c r="D30" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1820,21 +1916,24 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>41</v>
+        <v>40</v>
+      </c>
+      <c r="C31" t="s">
+        <v>116</v>
       </c>
       <c r="D31" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1844,21 +1943,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="C32" t="s">
+        <v>116</v>
       </c>
       <c r="D32" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1868,21 +1970,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L32" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>116</v>
       </c>
       <c r="D33" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1892,21 +1997,24 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L33" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>116</v>
       </c>
       <c r="D34" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1916,21 +2024,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L34" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="C35" t="s">
+        <v>116</v>
       </c>
       <c r="D35" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1940,21 +2051,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L35" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>118</v>
+      </c>
+      <c r="C36" t="s">
+        <v>116</v>
       </c>
       <c r="D36" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1964,21 +2078,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>47</v>
+        <v>45</v>
+      </c>
+      <c r="C37" t="s">
+        <v>116</v>
       </c>
       <c r="D37" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1988,21 +2105,24 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>48</v>
+        <v>46</v>
+      </c>
+      <c r="C38" t="s">
+        <v>116</v>
       </c>
       <c r="D38" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2012,21 +2132,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>49</v>
+        <v>47</v>
+      </c>
+      <c r="C39" t="s">
+        <v>116</v>
       </c>
       <c r="D39" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2036,21 +2159,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>50</v>
+        <v>48</v>
+      </c>
+      <c r="C40" t="s">
+        <v>116</v>
       </c>
       <c r="D40" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2060,21 +2186,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L40" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>51</v>
+        <v>49</v>
+      </c>
+      <c r="C41" t="s">
+        <v>116</v>
       </c>
       <c r="D41" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2084,21 +2213,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>52</v>
+        <v>50</v>
+      </c>
+      <c r="C42" t="s">
+        <v>116</v>
       </c>
       <c r="D42" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2108,21 +2240,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L42" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>53</v>
+        <v>51</v>
+      </c>
+      <c r="C43" t="s">
+        <v>116</v>
       </c>
       <c r="D43" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2132,21 +2267,24 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L43" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>54</v>
+        <v>52</v>
+      </c>
+      <c r="C44" t="s">
+        <v>116</v>
       </c>
       <c r="D44" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2156,21 +2294,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L44" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>55</v>
+        <v>53</v>
+      </c>
+      <c r="C45" t="s">
+        <v>116</v>
       </c>
       <c r="D45" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2180,21 +2321,24 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L45" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>56</v>
+        <v>54</v>
+      </c>
+      <c r="C46" t="s">
+        <v>116</v>
       </c>
       <c r="D46" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2204,21 +2348,24 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L46" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>57</v>
+        <v>55</v>
+      </c>
+      <c r="C47" t="s">
+        <v>116</v>
       </c>
       <c r="D47" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2228,21 +2375,24 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L47" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="C48" t="s">
+        <v>116</v>
       </c>
       <c r="D48" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2252,21 +2402,24 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>59</v>
+        <v>57</v>
+      </c>
+      <c r="C49" t="s">
+        <v>116</v>
       </c>
       <c r="D49" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2276,21 +2429,24 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L49" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>60</v>
+        <v>58</v>
+      </c>
+      <c r="C50" t="s">
+        <v>116</v>
       </c>
       <c r="D50" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2300,21 +2456,24 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L50" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>61</v>
+        <v>59</v>
+      </c>
+      <c r="C51" t="s">
+        <v>116</v>
       </c>
       <c r="D51" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2324,21 +2483,24 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C52" t="s">
+        <v>116</v>
       </c>
       <c r="D52" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2348,21 +2510,24 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>63</v>
+        <v>61</v>
+      </c>
+      <c r="C53" t="s">
+        <v>116</v>
       </c>
       <c r="D53" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2372,21 +2537,24 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L53" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="C54" t="s">
+        <v>116</v>
       </c>
       <c r="D54" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2396,21 +2564,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L54" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>65</v>
+        <v>63</v>
+      </c>
+      <c r="C55" t="s">
+        <v>116</v>
       </c>
       <c r="D55" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2420,21 +2591,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L55" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>66</v>
+        <v>64</v>
+      </c>
+      <c r="C56" t="s">
+        <v>116</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2444,21 +2618,24 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L56" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="C57" t="s">
+        <v>116</v>
       </c>
       <c r="D57" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2468,21 +2645,24 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L57" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>68</v>
+        <v>66</v>
+      </c>
+      <c r="C58" t="s">
+        <v>116</v>
       </c>
       <c r="D58" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2492,21 +2672,24 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L58" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C59" t="s">
+        <v>116</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2516,21 +2699,24 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>70</v>
+        <v>68</v>
+      </c>
+      <c r="C60" t="s">
+        <v>116</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2540,21 +2726,24 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L60" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="C61" t="s">
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2564,21 +2753,24 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L61" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>72</v>
+        <v>70</v>
+      </c>
+      <c r="C62" t="s">
+        <v>116</v>
       </c>
       <c r="D62" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2588,21 +2780,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>73</v>
+        <v>71</v>
+      </c>
+      <c r="C63" t="s">
+        <v>116</v>
       </c>
       <c r="D63" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2612,21 +2807,24 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L63" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>74</v>
+        <v>122</v>
+      </c>
+      <c r="C64" t="s">
+        <v>116</v>
       </c>
       <c r="D64" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2636,21 +2834,24 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L64" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="C65" t="s">
+        <v>116</v>
       </c>
       <c r="D65" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2660,21 +2861,24 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="C66" t="s">
+        <v>116</v>
       </c>
       <c r="D66" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2684,21 +2888,24 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78021_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78021_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L66" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C67" t="s">
+        <v>116</v>
       </c>
       <c r="D67" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2707,22 +2914,25 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G110" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78023_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G67:G106" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L67" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="C68" t="s">
+        <v>116</v>
       </c>
       <c r="D68" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2732,21 +2942,24 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L68" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="C69" t="s">
+        <v>116</v>
       </c>
       <c r="D69" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2756,21 +2969,24 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L69" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C70" t="s">
+        <v>116</v>
       </c>
       <c r="D70" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2780,21 +2996,24 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L70" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="C71" t="s">
+        <v>116</v>
       </c>
       <c r="D71" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2804,21 +3023,24 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L71" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="C72" t="s">
+        <v>116</v>
       </c>
       <c r="D72" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2828,21 +3050,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L72" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="C73" t="s">
+        <v>116</v>
       </c>
       <c r="D73" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -2852,21 +3077,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L73" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="C74" t="s">
+        <v>116</v>
       </c>
       <c r="D74" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -2876,21 +3104,24 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L74" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="C75" t="s">
+        <v>116</v>
       </c>
       <c r="D75" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -2900,21 +3131,24 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51443_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L75" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="C76" t="s">
+        <v>116</v>
       </c>
       <c r="D76" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -2924,21 +3158,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L76" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>87</v>
+        <v>119</v>
+      </c>
+      <c r="C77" t="s">
+        <v>116</v>
       </c>
       <c r="D77" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -2948,21 +3185,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L77" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>88</v>
+        <v>84</v>
+      </c>
+      <c r="C78" t="s">
+        <v>116</v>
       </c>
       <c r="D78" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -2972,21 +3212,24 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51913_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51913_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L78" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>89</v>
+        <v>85</v>
+      </c>
+      <c r="C79" t="s">
+        <v>116</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -2996,21 +3239,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L79" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
         <v>12</v>
       </c>
+      <c r="C80" t="s">
+        <v>116</v>
+      </c>
       <c r="D80" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3020,21 +3266,24 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L80" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>90</v>
+        <v>86</v>
+      </c>
+      <c r="C81" t="s">
+        <v>116</v>
       </c>
       <c r="D81" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3044,21 +3293,24 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L81" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>91</v>
+        <v>87</v>
+      </c>
+      <c r="C82" t="s">
+        <v>116</v>
       </c>
       <c r="D82" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3068,21 +3320,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>92</v>
+        <v>88</v>
+      </c>
+      <c r="C83" t="s">
+        <v>116</v>
       </c>
       <c r="D83" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3092,21 +3347,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41679_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41679_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L83" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>93</v>
+        <v>89</v>
+      </c>
+      <c r="C84" t="s">
+        <v>116</v>
       </c>
       <c r="D84" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3116,21 +3374,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L84" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>94</v>
+        <v>90</v>
+      </c>
+      <c r="C85" t="s">
+        <v>116</v>
       </c>
       <c r="D85" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3140,21 +3401,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51914_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51914_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L85" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>95</v>
+        <v>91</v>
+      </c>
+      <c r="C86" t="s">
+        <v>116</v>
       </c>
       <c r="D86" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3164,21 +3428,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L86" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>96</v>
+        <v>92</v>
+      </c>
+      <c r="C87" t="s">
+        <v>116</v>
       </c>
       <c r="D87" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3188,21 +3455,24 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L87" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>97</v>
+        <v>93</v>
+      </c>
+      <c r="C88" t="s">
+        <v>116</v>
       </c>
       <c r="D88" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3212,21 +3482,24 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L88" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>98</v>
+        <v>94</v>
+      </c>
+      <c r="C89" t="s">
+        <v>116</v>
       </c>
       <c r="D89" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3236,21 +3509,24 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L89" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>99</v>
+        <v>95</v>
+      </c>
+      <c r="C90" t="s">
+        <v>116</v>
       </c>
       <c r="D90" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3260,21 +3536,24 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L90" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>100</v>
+        <v>96</v>
+      </c>
+      <c r="C91" t="s">
+        <v>116</v>
       </c>
       <c r="D91" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3284,21 +3563,24 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L91" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>101</v>
+        <v>97</v>
+      </c>
+      <c r="C92" t="s">
+        <v>116</v>
       </c>
       <c r="D92" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3308,21 +3590,24 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L92" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>102</v>
+        <v>98</v>
+      </c>
+      <c r="C93" t="s">
+        <v>116</v>
       </c>
       <c r="D93" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3332,21 +3617,24 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>103</v>
+        <v>99</v>
+      </c>
+      <c r="C94" t="s">
+        <v>116</v>
       </c>
       <c r="D94" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3356,21 +3644,24 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>104</v>
+        <v>100</v>
+      </c>
+      <c r="C95" t="s">
+        <v>116</v>
       </c>
       <c r="D95" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3380,21 +3671,24 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L95" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>105</v>
+        <v>101</v>
+      </c>
+      <c r="C96" t="s">
+        <v>116</v>
       </c>
       <c r="D96" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3404,21 +3698,24 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L96" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>106</v>
+        <v>102</v>
+      </c>
+      <c r="C97" t="s">
+        <v>116</v>
       </c>
       <c r="D97" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3428,21 +3725,24 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61305_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L97" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>107</v>
+        <v>120</v>
+      </c>
+      <c r="C98" t="s">
+        <v>116</v>
       </c>
       <c r="D98" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3452,21 +3752,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51901_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61309_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L98" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>108</v>
+        <v>103</v>
+      </c>
+      <c r="C99" t="s">
+        <v>116</v>
       </c>
       <c r="D99" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3476,21 +3779,24 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51901_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L99" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>109</v>
+        <v>104</v>
+      </c>
+      <c r="C100" t="s">
+        <v>116</v>
       </c>
       <c r="D100" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3500,21 +3806,24 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_60404_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L100" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>110</v>
+        <v>105</v>
+      </c>
+      <c r="C101" t="s">
+        <v>116</v>
       </c>
       <c r="D101" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3524,21 +3833,24 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L101" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>111</v>
+        <v>106</v>
+      </c>
+      <c r="C102" t="s">
+        <v>116</v>
       </c>
       <c r="D102" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3548,21 +3860,24 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L102" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>112</v>
+        <v>107</v>
+      </c>
+      <c r="C103" t="s">
+        <v>116</v>
       </c>
       <c r="D103" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3572,21 +3887,24 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>113</v>
+        <v>108</v>
+      </c>
+      <c r="C104" t="s">
+        <v>116</v>
       </c>
       <c r="D104" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3596,21 +3914,24 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L104" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>114</v>
+        <v>109</v>
+      </c>
+      <c r="C105" t="s">
+        <v>116</v>
       </c>
       <c r="D105" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3620,21 +3941,24 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41611_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41611_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L105" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>115</v>
+        <v>110</v>
+      </c>
+      <c r="C106" t="s">
+        <v>116</v>
       </c>
       <c r="D106" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3644,21 +3968,24 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L106" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
+        <v>111</v>
+      </c>
+      <c r="C107" t="s">
         <v>116</v>
       </c>
       <c r="D107" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3667,22 +3994,25 @@
         <v>1</v>
       </c>
       <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41618_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G107:G108" si="2">$K107&amp;"\"&amp;L107</f>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L107" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>117</v>
+        <v>112</v>
+      </c>
+      <c r="C108" t="s">
+        <v>116</v>
       </c>
       <c r="D108" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -3691,22 +4021,25 @@
         <v>1</v>
       </c>
       <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_41693_ESTCommissionStatement.pdf</v>
+        <f t="shared" si="2"/>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>118</v>
+        <v>113</v>
+      </c>
+      <c r="C109" t="s">
+        <v>116</v>
       </c>
       <c r="D109" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -3715,22 +4048,25 @@
         <v>1</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_30618_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G109:G110" si="3">$K109&amp;"\"&amp;L109</f>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L109" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="110" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>119</v>
+        <v>114</v>
+      </c>
+      <c r="C110" t="s">
+        <v>116</v>
       </c>
       <c r="D110" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="E110">
         <v>1</v>
@@ -3739,14 +4075,14 @@
         <v>1</v>
       </c>
       <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201703_70902_ESTCommissionStatement.pdf</v>
+        <f t="shared" si="3"/>
+        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K110" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="L110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="230">
   <si>
     <t>msg</t>
   </si>
@@ -291,9 +291,6 @@
     <t>Peter.Morris@henryschein.ca</t>
   </si>
   <si>
-    <t>Justin.Branco@henryschein.ca</t>
-  </si>
-  <si>
     <t>Robert.Cluett@henryschein.ca</t>
   </si>
   <si>
@@ -366,9 +363,6 @@
     <t>Ed.Smith@henryschein.ca</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm</t>
-  </si>
-  <si>
     <t>ETU_MSG_EST_Comm.htm</t>
   </si>
   <si>
@@ -390,331 +384,331 @@
     <t>Rick.Stamm@henryschein.ca</t>
   </si>
   <si>
-    <t>201708_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_20404_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51409_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51424_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41621_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78021_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51913_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41679_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51914_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_61309_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51901_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41611_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_30618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201708_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>EST Commission Summary for August 2017</t>
+    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for October 2017</t>
+  </si>
+  <si>
+    <t>201710_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_20404_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51409_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51424_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41621_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78021_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_30618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51443_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51913_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41679_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_61309_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51901_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41611_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201710_41618_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1058,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N110"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1110,7 +1104,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1127,11 +1121,11 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>EST Commission Summary for August 2017</v>
+        <v>EST Commission Summary for October 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1141,15 +1135,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61313_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K2" t="str">
-        <f>K3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61313_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K2" t="s">
+        <v>121</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201708_61313_ESTCommissionStatement.pdf</v>
+        <v>201710_61313_ESTCommissionStatement.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1158,10 +1151,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1171,10 +1164,10 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L3" t="s">
         <v>123</v>
@@ -1186,10 +1179,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D4" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1199,10 +1192,10 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L4" t="s">
         <v>124</v>
@@ -1214,10 +1207,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D5" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1227,10 +1220,10 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L5" t="s">
         <v>125</v>
@@ -1242,10 +1235,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D6" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1255,10 +1248,10 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L6" t="s">
         <v>126</v>
@@ -1270,10 +1263,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D7" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1283,10 +1276,10 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L7" t="s">
         <v>127</v>
@@ -1298,10 +1291,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D8" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1311,10 +1304,10 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L8" t="s">
         <v>128</v>
@@ -1323,13 +1316,13 @@
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D9" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1339,10 +1332,10 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L9" t="s">
         <v>129</v>
@@ -1354,10 +1347,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D10" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1367,10 +1360,10 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L10" t="s">
         <v>130</v>
@@ -1382,10 +1375,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D11" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1395,10 +1388,10 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20404_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20404_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L11" t="s">
         <v>131</v>
@@ -1410,10 +1403,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D12" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1423,10 +1416,10 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L12" t="s">
         <v>132</v>
@@ -1438,10 +1431,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D13" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1451,10 +1444,10 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L13" t="s">
         <v>133</v>
@@ -1466,10 +1459,10 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D14" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1479,10 +1472,10 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51409_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51409_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s">
         <v>134</v>
@@ -1494,10 +1487,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D15" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1507,10 +1500,10 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L15" t="s">
         <v>135</v>
@@ -1522,10 +1515,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D16" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1535,10 +1528,10 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L16" t="s">
         <v>136</v>
@@ -1550,10 +1543,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D17" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1563,10 +1556,10 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L17" t="s">
         <v>137</v>
@@ -1578,10 +1571,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D18" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1591,10 +1584,10 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51424_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51424_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L18" t="s">
         <v>138</v>
@@ -1606,10 +1599,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D19" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1619,10 +1612,10 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L19" t="s">
         <v>139</v>
@@ -1633,10 +1626,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D20" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1646,10 +1639,10 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L20" t="s">
         <v>140</v>
@@ -1660,10 +1653,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D21" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1673,10 +1666,10 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L21" t="s">
         <v>141</v>
@@ -1687,10 +1680,10 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D22" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1700,10 +1693,10 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L22" t="s">
         <v>142</v>
@@ -1714,10 +1707,10 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D23" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1727,10 +1720,10 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L23" t="s">
         <v>143</v>
@@ -1741,10 +1734,10 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D24" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1754,10 +1747,10 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L24" t="s">
         <v>144</v>
@@ -1768,10 +1761,10 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D25" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1781,10 +1774,10 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L25" t="s">
         <v>145</v>
@@ -1795,10 +1788,10 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D26" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1808,10 +1801,10 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L26" t="s">
         <v>146</v>
@@ -1822,10 +1815,10 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D27" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1835,10 +1828,10 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41621_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41621_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L27" t="s">
         <v>147</v>
@@ -1849,10 +1842,10 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D28" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1862,10 +1855,10 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L28" t="s">
         <v>148</v>
@@ -1876,10 +1869,10 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D29" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1889,10 +1882,10 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L29" t="s">
         <v>149</v>
@@ -1903,10 +1896,10 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D30" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1916,10 +1909,10 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L30" t="s">
         <v>150</v>
@@ -1930,10 +1923,10 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D31" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1943,10 +1936,10 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L31" t="s">
         <v>151</v>
@@ -1957,10 +1950,10 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D32" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1970,10 +1963,10 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L32" t="s">
         <v>152</v>
@@ -1984,10 +1977,10 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D33" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1997,10 +1990,10 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L33" t="s">
         <v>153</v>
@@ -2011,10 +2004,10 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D34" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2024,10 +2017,10 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L34" t="s">
         <v>154</v>
@@ -2038,10 +2031,10 @@
         <v>44</v>
       </c>
       <c r="C35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D35" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2051,10 +2044,10 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L35" t="s">
         <v>155</v>
@@ -2062,13 +2055,13 @@
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C36" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D36" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2078,10 +2071,10 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L36" t="s">
         <v>156</v>
@@ -2092,10 +2085,10 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D37" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2105,10 +2098,10 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L37" t="s">
         <v>157</v>
@@ -2119,10 +2112,10 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D38" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2132,10 +2125,10 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L38" t="s">
         <v>158</v>
@@ -2146,10 +2139,10 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D39" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2159,10 +2152,10 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L39" t="s">
         <v>159</v>
@@ -2173,10 +2166,10 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D40" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2186,10 +2179,10 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L40" t="s">
         <v>160</v>
@@ -2200,10 +2193,10 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D41" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2213,10 +2206,10 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L41" t="s">
         <v>161</v>
@@ -2227,10 +2220,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D42" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2240,10 +2233,10 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L42" t="s">
         <v>162</v>
@@ -2254,10 +2247,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D43" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2267,10 +2260,10 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L43" t="s">
         <v>163</v>
@@ -2281,10 +2274,10 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D44" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2294,10 +2287,10 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L44" t="s">
         <v>164</v>
@@ -2308,10 +2301,10 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D45" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2321,10 +2314,10 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L45" t="s">
         <v>165</v>
@@ -2335,10 +2328,10 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D46" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2348,10 +2341,10 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L46" t="s">
         <v>166</v>
@@ -2362,10 +2355,10 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D47" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2375,10 +2368,10 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L47" t="s">
         <v>167</v>
@@ -2389,10 +2382,10 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D48" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2402,10 +2395,10 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L48" t="s">
         <v>168</v>
@@ -2416,10 +2409,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D49" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2429,10 +2422,10 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L49" t="s">
         <v>169</v>
@@ -2443,10 +2436,10 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D50" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2456,10 +2449,10 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L50" t="s">
         <v>170</v>
@@ -2470,10 +2463,10 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D51" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2483,10 +2476,10 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L51" t="s">
         <v>171</v>
@@ -2497,10 +2490,10 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D52" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2510,10 +2503,10 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L52" t="s">
         <v>172</v>
@@ -2524,10 +2517,10 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D53" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2537,10 +2530,10 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L53" t="s">
         <v>173</v>
@@ -2551,10 +2544,10 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D54" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2564,10 +2557,10 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L54" t="s">
         <v>174</v>
@@ -2578,10 +2571,10 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D55" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2591,10 +2584,10 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L55" t="s">
         <v>175</v>
@@ -2605,10 +2598,10 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D56" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2618,10 +2611,10 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L56" t="s">
         <v>176</v>
@@ -2632,10 +2625,10 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D57" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2645,10 +2638,10 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L57" t="s">
         <v>177</v>
@@ -2659,10 +2652,10 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D58" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2672,10 +2665,10 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L58" t="s">
         <v>178</v>
@@ -2686,10 +2679,10 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D59" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2699,10 +2692,10 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L59" t="s">
         <v>179</v>
@@ -2713,10 +2706,10 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D60" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2726,10 +2719,10 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L60" t="s">
         <v>180</v>
@@ -2740,10 +2733,10 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D61" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2753,10 +2746,10 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L61" t="s">
         <v>181</v>
@@ -2767,10 +2760,10 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D62" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2780,10 +2773,10 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L62" t="s">
         <v>182</v>
@@ -2794,10 +2787,10 @@
         <v>71</v>
       </c>
       <c r="C63" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D63" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2807,10 +2800,10 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L63" t="s">
         <v>183</v>
@@ -2818,13 +2811,13 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C64" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D64" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2834,10 +2827,10 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L64" t="s">
         <v>184</v>
@@ -2848,10 +2841,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2861,10 +2854,10 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L65" t="s">
         <v>185</v>
@@ -2875,10 +2868,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D66" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2888,10 +2881,10 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78021_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78021_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L66" t="s">
         <v>186</v>
@@ -2902,10 +2895,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2915,10 +2908,10 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G106" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L67" t="s">
         <v>187</v>
@@ -2929,10 +2922,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D68" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2942,10 +2935,10 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L68" t="s">
         <v>188</v>
@@ -2956,10 +2949,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D69" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2969,10 +2962,10 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L69" t="s">
         <v>189</v>
@@ -2983,10 +2976,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D70" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2996,10 +2989,10 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L70" t="s">
         <v>190</v>
@@ -3010,10 +3003,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D71" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3023,10 +3016,10 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L71" t="s">
         <v>191</v>
@@ -3037,10 +3030,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D72" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3050,10 +3043,10 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L72" t="s">
         <v>192</v>
@@ -3064,10 +3057,10 @@
         <v>80</v>
       </c>
       <c r="C73" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D73" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3077,10 +3070,10 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L73" t="s">
         <v>193</v>
@@ -3088,13 +3081,13 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>81</v>
+        <v>112</v>
       </c>
       <c r="C74" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D74" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3104,10 +3097,10 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L74" t="s">
         <v>194</v>
@@ -3115,13 +3108,13 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D75" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3131,10 +3124,10 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L75" t="s">
         <v>195</v>
@@ -3142,13 +3135,13 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3158,10 +3151,10 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51443_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L76" t="s">
         <v>196</v>
@@ -3169,13 +3162,13 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>119</v>
+        <v>83</v>
       </c>
       <c r="C77" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D77" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3185,10 +3178,10 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L77" t="s">
         <v>197</v>
@@ -3196,13 +3189,13 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>84</v>
+        <v>117</v>
       </c>
       <c r="C78" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D78" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3212,10 +3205,10 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51913_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L78" t="s">
         <v>198</v>
@@ -3223,13 +3216,13 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D79" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3239,10 +3232,10 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51913_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L79" t="s">
         <v>199</v>
@@ -3250,13 +3243,13 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C80" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D80" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3266,10 +3259,10 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L80" t="s">
         <v>200</v>
@@ -3277,13 +3270,13 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>86</v>
+        <v>12</v>
       </c>
       <c r="C81" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D81" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3293,10 +3286,10 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L81" t="s">
         <v>201</v>
@@ -3304,13 +3297,13 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D82" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3320,10 +3313,10 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L82" t="s">
         <v>202</v>
@@ -3331,13 +3324,13 @@
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D83" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3347,10 +3340,10 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41679_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L83" t="s">
         <v>203</v>
@@ -3358,13 +3351,13 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D84" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3374,10 +3367,10 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41679_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L84" t="s">
         <v>204</v>
@@ -3385,13 +3378,13 @@
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C85" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D85" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3401,10 +3394,10 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51914_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L85" t="s">
         <v>205</v>
@@ -3412,13 +3405,13 @@
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="C86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D86" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3428,10 +3421,10 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L86" t="s">
         <v>206</v>
@@ -3439,13 +3432,13 @@
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>92</v>
+        <v>111</v>
       </c>
       <c r="C87" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D87" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3455,10 +3448,10 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L87" t="s">
         <v>207</v>
@@ -3466,13 +3459,13 @@
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D88" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3482,10 +3475,10 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L88" t="s">
         <v>208</v>
@@ -3493,13 +3486,13 @@
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D89" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3509,10 +3502,10 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L89" t="s">
         <v>209</v>
@@ -3520,13 +3513,13 @@
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D90" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3536,10 +3529,10 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L90" t="s">
         <v>210</v>
@@ -3547,13 +3540,13 @@
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D91" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3563,10 +3556,10 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L91" t="s">
         <v>211</v>
@@ -3574,13 +3567,13 @@
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D92" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3590,10 +3583,10 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L92" t="s">
         <v>212</v>
@@ -3601,13 +3594,13 @@
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D93" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3617,10 +3610,10 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L93" t="s">
         <v>213</v>
@@ -3628,13 +3621,13 @@
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D94" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3644,10 +3637,10 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L94" t="s">
         <v>214</v>
@@ -3655,13 +3648,13 @@
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D95" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3671,10 +3664,10 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L95" t="s">
         <v>215</v>
@@ -3682,13 +3675,13 @@
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D96" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3698,10 +3691,10 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L96" t="s">
         <v>216</v>
@@ -3709,13 +3702,13 @@
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D97" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3725,10 +3718,10 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L97" t="s">
         <v>217</v>
@@ -3736,13 +3729,13 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D98" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3752,10 +3745,10 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_61309_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L98" t="s">
         <v>218</v>
@@ -3763,13 +3756,13 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C99" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D99" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3779,10 +3772,10 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51901_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61305_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L99" t="s">
         <v>219</v>
@@ -3790,13 +3783,13 @@
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>104</v>
+        <v>118</v>
       </c>
       <c r="C100" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D100" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3806,10 +3799,10 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61309_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L100" t="s">
         <v>220</v>
@@ -3817,13 +3810,13 @@
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D101" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3833,10 +3826,10 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51901_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L101" t="s">
         <v>221</v>
@@ -3844,13 +3837,13 @@
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D102" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3860,10 +3853,10 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L102" t="s">
         <v>222</v>
@@ -3871,13 +3864,13 @@
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D103" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3887,10 +3880,10 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L103" t="s">
         <v>223</v>
@@ -3898,13 +3891,13 @@
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D104" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3914,10 +3907,10 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L104" t="s">
         <v>224</v>
@@ -3925,13 +3918,13 @@
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D105" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3941,10 +3934,10 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41611_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L105" t="s">
         <v>225</v>
@@ -3952,13 +3945,13 @@
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D106" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3968,10 +3961,10 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L106" t="s">
         <v>226</v>
@@ -3979,13 +3972,13 @@
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D107" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3995,10 +3988,10 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" ref="G107:G108" si="2">$K107&amp;"\"&amp;L107</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41618_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41611_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L107" t="s">
         <v>227</v>
@@ -4006,13 +3999,13 @@
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D108" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4022,10 +4015,10 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L108" t="s">
         <v>228</v>
@@ -4033,13 +4026,13 @@
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>122</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4048,41 +4041,14 @@
         <v>1</v>
       </c>
       <c r="G109" t="str">
-        <f t="shared" ref="G109:G110" si="3">$K109&amp;"\"&amp;L109</f>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_30618_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G109" si="3">$K109&amp;"\"&amp;L109</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="L109" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>114</v>
-      </c>
-      <c r="C110" t="s">
-        <v>116</v>
-      </c>
-      <c r="D110" t="s">
-        <v>231</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="3"/>
-        <v>S:\Business Reporting\Share\Email Master Send\ETU_EST_Comm\201708_70902_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K110" t="s">
-        <v>115</v>
-      </c>
-      <c r="L110" t="s">
-        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="228">
   <si>
     <t>msg</t>
   </si>
@@ -129,9 +129,6 @@
     <t>Chad.Pelletier@henryschein.ca</t>
   </si>
   <si>
-    <t>John.McGuire@henryschein.ca</t>
-  </si>
-  <si>
     <t>Roger.Birdsell@henryschein.ca</t>
   </si>
   <si>
@@ -387,328 +384,325 @@
     <t>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm</t>
   </si>
   <si>
-    <t>EST Commission Summary for October 2017</t>
-  </si>
-  <si>
-    <t>201710_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_20404_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51409_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51424_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41621_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78021_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_30618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51913_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41679_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_61309_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51901_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41611_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201710_41618_ESTCommissionStatement.pdf</t>
+    <t>EST Commission Summary for November 2017</t>
+  </si>
+  <si>
+    <t>201711_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_20404_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51409_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51424_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78021_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_30618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51443_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51913_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41679_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_61309_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51901_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41611_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201711_41618_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1058,7 +1052,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N108"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1104,7 +1098,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1121,11 +1115,11 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>EST Commission Summary for October 2017</v>
+        <v>EST Commission Summary for November 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1135,14 +1129,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201710_61313_ESTCommissionStatement.pdf</v>
+        <v>201711_61313_ESTCommissionStatement.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1151,10 +1145,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1164,13 +1158,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1179,10 +1173,10 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1192,13 +1186,13 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1207,10 +1201,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1220,13 +1214,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1235,10 +1229,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1248,13 +1242,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1263,10 +1257,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D7" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1276,13 +1270,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1291,10 +1285,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1304,25 +1298,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1332,13 +1326,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L9" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1347,10 +1341,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1360,13 +1354,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1375,10 +1369,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1388,13 +1382,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20404_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20404_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1403,10 +1397,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1416,13 +1410,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1431,10 +1425,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1444,13 +1438,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1459,10 +1453,10 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1472,13 +1466,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51409_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51409_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1487,10 +1481,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1500,13 +1494,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1515,10 +1509,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1528,13 +1522,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1543,10 +1537,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1556,13 +1550,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1571,10 +1565,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1584,13 +1578,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51424_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51424_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1599,10 +1593,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1612,13 +1606,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1626,10 +1620,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1639,13 +1633,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1653,10 +1647,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1666,13 +1660,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L21" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1680,10 +1674,10 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1693,13 +1687,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1707,10 +1701,10 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1720,13 +1714,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1734,10 +1728,10 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1747,13 +1741,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1761,10 +1755,10 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1774,13 +1768,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1788,10 +1782,10 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1801,13 +1795,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1815,10 +1809,10 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1828,13 +1822,13 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41621_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1842,10 +1836,10 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1855,13 +1849,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1869,10 +1863,10 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1882,13 +1876,13 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1896,10 +1890,10 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1909,13 +1903,13 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1923,10 +1917,10 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1936,13 +1930,13 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1950,10 +1944,10 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1963,13 +1957,13 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L32" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1977,10 +1971,10 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1990,13 +1984,13 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -2004,10 +1998,10 @@
         <v>43</v>
       </c>
       <c r="C34" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2017,24 +2011,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L34" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>115</v>
       </c>
       <c r="C35" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2044,24 +2038,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2071,13 +2065,13 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L36" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -2085,10 +2079,10 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2098,13 +2092,13 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -2112,10 +2106,10 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2125,13 +2119,13 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L38" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -2139,10 +2133,10 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2152,13 +2146,13 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L39" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -2166,10 +2160,10 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2179,13 +2173,13 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2193,10 +2187,10 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2206,13 +2200,13 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L41" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -2220,10 +2214,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2233,13 +2227,13 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L42" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -2247,10 +2241,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2260,13 +2254,13 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L43" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -2274,10 +2268,10 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2287,13 +2281,13 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L44" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2301,10 +2295,10 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2314,13 +2308,13 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L45" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2328,10 +2322,10 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2341,13 +2335,13 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -2355,10 +2349,10 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2368,13 +2362,13 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L47" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -2382,10 +2376,10 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2395,13 +2389,13 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L48" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2409,10 +2403,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2422,13 +2416,13 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L49" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -2436,10 +2430,10 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2449,13 +2443,13 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -2463,10 +2457,10 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2476,13 +2470,13 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2490,10 +2484,10 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2503,13 +2497,13 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2517,10 +2511,10 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2530,13 +2524,13 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L53" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2544,10 +2538,10 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2557,13 +2551,13 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -2571,10 +2565,10 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2584,13 +2578,13 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L55" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2598,10 +2592,10 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2611,13 +2605,13 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L56" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2625,10 +2619,10 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2638,13 +2632,13 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L57" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2652,10 +2646,10 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2665,13 +2659,13 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L58" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2679,10 +2673,10 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2692,13 +2686,13 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L59" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -2706,10 +2700,10 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2719,13 +2713,13 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L60" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -2733,10 +2727,10 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2746,13 +2740,13 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -2760,10 +2754,10 @@
         <v>70</v>
       </c>
       <c r="C62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2773,24 +2767,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
       <c r="C63" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2800,24 +2794,24 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L63" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>120</v>
+        <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2827,13 +2821,13 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L64" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -2841,10 +2835,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2854,13 +2848,13 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78021_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L65" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -2868,10 +2862,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2881,13 +2875,13 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78021_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L66" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -2895,10 +2889,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2908,13 +2902,13 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G106" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -2922,10 +2916,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2935,13 +2929,13 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L68" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -2949,10 +2943,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2962,13 +2956,13 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -2976,10 +2970,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2989,13 +2983,13 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L70" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -3003,10 +2997,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3016,13 +3010,13 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -3030,10 +3024,10 @@
         <v>79</v>
       </c>
       <c r="C72" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3043,24 +3037,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L72" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="C73" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3070,24 +3064,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L73" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>112</v>
+        <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3097,13 +3091,13 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_30618_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L74" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -3111,10 +3105,10 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3124,13 +3118,13 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51443_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L75" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -3138,10 +3132,10 @@
         <v>82</v>
       </c>
       <c r="C76" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3151,24 +3145,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L76" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
       <c r="C77" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3178,24 +3172,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L77" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C78" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3205,13 +3199,13 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51913_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L78" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -3219,10 +3213,10 @@
         <v>84</v>
       </c>
       <c r="C79" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3232,24 +3226,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51913_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L79" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>85</v>
+        <v>12</v>
       </c>
       <c r="C80" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3259,24 +3253,24 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L80" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3286,13 +3280,13 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L81" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -3300,10 +3294,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3313,13 +3307,13 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L82" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
@@ -3327,10 +3321,10 @@
         <v>87</v>
       </c>
       <c r="C83" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3340,13 +3334,13 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41679_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L83" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
@@ -3354,10 +3348,10 @@
         <v>88</v>
       </c>
       <c r="C84" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3367,24 +3361,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41679_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L84" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="C85" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3394,24 +3388,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L85" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C86" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3421,24 +3415,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L86" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>111</v>
+        <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3448,13 +3442,13 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L87" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -3462,10 +3456,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3475,13 +3469,13 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L88" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -3489,10 +3483,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3502,13 +3496,13 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -3516,10 +3510,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3529,13 +3523,13 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L90" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -3543,10 +3537,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3556,13 +3550,13 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L91" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -3570,10 +3564,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3583,13 +3577,13 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L92" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -3597,10 +3591,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3610,13 +3604,13 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L93" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -3624,10 +3618,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3637,13 +3631,13 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L94" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -3651,10 +3645,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3664,13 +3658,13 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L95" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -3678,10 +3672,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3691,13 +3685,13 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L96" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -3705,10 +3699,10 @@
         <v>99</v>
       </c>
       <c r="C97" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3718,13 +3712,13 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L97" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
@@ -3732,10 +3726,10 @@
         <v>100</v>
       </c>
       <c r="C98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3745,24 +3739,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61305_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L98" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>101</v>
+        <v>117</v>
       </c>
       <c r="C99" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3772,24 +3766,24 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61309_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L99" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>118</v>
+        <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3799,13 +3793,13 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_61309_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51901_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L100" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -3813,10 +3807,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3826,13 +3820,13 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51901_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L101" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
@@ -3840,10 +3834,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3853,13 +3847,13 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L102" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
@@ -3867,10 +3861,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D103" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3880,13 +3874,13 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L103" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
@@ -3894,10 +3888,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3907,13 +3901,13 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L104" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
@@ -3921,10 +3915,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3934,13 +3928,13 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L105" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
@@ -3948,10 +3942,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D106" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3961,13 +3955,13 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41611_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L106" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
@@ -3975,10 +3969,10 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D107" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -3988,13 +3982,13 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" ref="G107:G108" si="2">$K107&amp;"\"&amp;L107</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41611_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L107" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
@@ -4002,10 +3996,10 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D108" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4015,40 +4009,13 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L108" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>110</v>
-      </c>
-      <c r="C109" t="s">
-        <v>114</v>
-      </c>
-      <c r="D109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" ref="G109" si="3">$K109&amp;"\"&amp;L109</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201710_41618_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K109" t="s">
-        <v>121</v>
-      </c>
-      <c r="L109" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="224">
   <si>
     <t>msg</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Stephane.Belanger@henryschein.ca</t>
   </si>
   <si>
-    <t>Francois.Beauchamp@henryschein.ca</t>
-  </si>
-  <si>
     <t>Stephen.Mitton@henryschein.ca</t>
   </si>
   <si>
@@ -270,9 +267,6 @@
     <t>Keegan.Dunn@henryschein.ca</t>
   </si>
   <si>
-    <t>Frank.Pedersen@henryschein.ca</t>
-  </si>
-  <si>
     <t>Peter.Muscat@henryschein.ca</t>
   </si>
   <si>
@@ -384,325 +378,319 @@
     <t>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm</t>
   </si>
   <si>
-    <t>EST Commission Summary for November 2017</t>
-  </si>
-  <si>
-    <t>201711_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_20404_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51409_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51424_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78021_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_30618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51913_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41679_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_61309_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51901_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41611_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201711_41618_ESTCommissionStatement.pdf</t>
+    <t>EST Commission Summary for December 2017</t>
+  </si>
+  <si>
+    <t>201712_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_20404_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51424_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78021_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_30618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51443_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41679_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_61309_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51901_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41611_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201712_41618_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1052,7 +1040,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N108"/>
+  <dimension ref="A1:N106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,7 +1086,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1115,11 +1103,11 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>EST Commission Summary for November 2017</v>
+        <v>EST Commission Summary for December 2017</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1129,14 +1117,14 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201711_61313_ESTCommissionStatement.pdf</v>
+        <v>201712_61313_ESTCommissionStatement.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -1145,10 +1133,10 @@
         <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1158,13 +1146,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
+        <v>118</v>
+      </c>
+      <c r="L3" t="s">
         <v>120</v>
-      </c>
-      <c r="L3" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1173,26 +1161,26 @@
         <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51423_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K4" t="s">
+        <v>118</v>
+      </c>
+      <c r="L4" t="s">
         <v>121</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51423_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K4" t="s">
-        <v>120</v>
-      </c>
-      <c r="L4" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -1201,10 +1189,10 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1214,13 +1202,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1229,10 +1217,10 @@
         <v>16</v>
       </c>
       <c r="C6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1242,13 +1230,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1257,10 +1245,10 @@
         <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1270,13 +1258,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1285,10 +1273,10 @@
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D8" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1298,25 +1286,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L8" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1326,13 +1314,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L9" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,10 +1329,10 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1354,13 +1342,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L10" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1369,10 +1357,10 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1382,13 +1370,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20404_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_20404_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1397,10 +1385,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1410,13 +1398,13 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1425,10 +1413,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1438,13 +1426,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1453,10 +1441,10 @@
         <v>23</v>
       </c>
       <c r="C14" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D14" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1466,13 +1454,13 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51409_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1481,10 +1469,10 @@
         <v>24</v>
       </c>
       <c r="C15" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1494,13 +1482,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1509,10 +1497,10 @@
         <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1522,13 +1510,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1537,10 +1525,10 @@
         <v>26</v>
       </c>
       <c r="C17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1550,13 +1538,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51424_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1565,10 +1553,10 @@
         <v>27</v>
       </c>
       <c r="C18" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1578,13 +1566,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51424_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L18" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1593,10 +1581,10 @@
         <v>28</v>
       </c>
       <c r="C19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D19" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1606,13 +1594,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1620,10 +1608,10 @@
         <v>29</v>
       </c>
       <c r="C20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1633,13 +1621,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L20" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1647,10 +1635,10 @@
         <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D21" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1660,13 +1648,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L21" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1674,10 +1662,10 @@
         <v>31</v>
       </c>
       <c r="C22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1687,13 +1675,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L22" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1701,10 +1689,10 @@
         <v>32</v>
       </c>
       <c r="C23" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1714,13 +1702,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L23" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1728,10 +1716,10 @@
         <v>33</v>
       </c>
       <c r="C24" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D24" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1741,13 +1729,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L24" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1755,10 +1743,10 @@
         <v>34</v>
       </c>
       <c r="C25" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D25" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1768,13 +1756,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L25" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1782,10 +1770,10 @@
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1795,13 +1783,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L26" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1809,10 +1797,10 @@
         <v>36</v>
       </c>
       <c r="C27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1822,13 +1810,13 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1836,10 +1824,10 @@
         <v>37</v>
       </c>
       <c r="C28" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D28" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1849,13 +1837,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L28" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1863,10 +1851,10 @@
         <v>38</v>
       </c>
       <c r="C29" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D29" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1876,13 +1864,13 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L29" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1890,10 +1878,10 @@
         <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D30" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1903,13 +1891,13 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L30" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1917,10 +1905,10 @@
         <v>40</v>
       </c>
       <c r="C31" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D31" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1930,13 +1918,13 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L31" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1944,10 +1932,10 @@
         <v>41</v>
       </c>
       <c r="C32" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1957,13 +1945,13 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L32" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
@@ -1971,10 +1959,10 @@
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D33" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1984,24 +1972,24 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L33" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D34" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2011,24 +1999,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L34" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2038,13 +2026,13 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L35" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -2052,10 +2040,10 @@
         <v>44</v>
       </c>
       <c r="C36" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D36" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2065,13 +2053,13 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L36" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -2079,10 +2067,10 @@
         <v>45</v>
       </c>
       <c r="C37" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D37" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2092,13 +2080,13 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L37" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -2106,10 +2094,10 @@
         <v>46</v>
       </c>
       <c r="C38" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D38" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2119,13 +2107,13 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L38" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
@@ -2133,10 +2121,10 @@
         <v>47</v>
       </c>
       <c r="C39" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D39" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2146,13 +2134,13 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L39" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
@@ -2160,10 +2148,10 @@
         <v>48</v>
       </c>
       <c r="C40" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2173,13 +2161,13 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L40" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2187,10 +2175,10 @@
         <v>49</v>
       </c>
       <c r="C41" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D41" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2200,13 +2188,13 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L41" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
@@ -2214,10 +2202,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D42" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2227,13 +2215,13 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L42" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
@@ -2241,10 +2229,10 @@
         <v>51</v>
       </c>
       <c r="C43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D43" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2254,13 +2242,13 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L43" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -2268,10 +2256,10 @@
         <v>52</v>
       </c>
       <c r="C44" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2281,13 +2269,13 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L44" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2295,10 +2283,10 @@
         <v>53</v>
       </c>
       <c r="C45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2308,13 +2296,13 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L45" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2322,10 +2310,10 @@
         <v>54</v>
       </c>
       <c r="C46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2335,13 +2323,13 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L46" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -2349,10 +2337,10 @@
         <v>55</v>
       </c>
       <c r="C47" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D47" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2362,13 +2350,13 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L47" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -2376,10 +2364,10 @@
         <v>56</v>
       </c>
       <c r="C48" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D48" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2389,13 +2377,13 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L48" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2403,10 +2391,10 @@
         <v>57</v>
       </c>
       <c r="C49" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D49" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2416,13 +2404,13 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -2430,10 +2418,10 @@
         <v>58</v>
       </c>
       <c r="C50" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D50" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2443,13 +2431,13 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L50" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -2457,10 +2445,10 @@
         <v>59</v>
       </c>
       <c r="C51" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D51" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2470,13 +2458,13 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L51" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2484,10 +2472,10 @@
         <v>60</v>
       </c>
       <c r="C52" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D52" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2497,13 +2485,13 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L52" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2511,10 +2499,10 @@
         <v>61</v>
       </c>
       <c r="C53" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D53" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2524,13 +2512,13 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L53" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2538,10 +2526,10 @@
         <v>62</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D54" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2551,13 +2539,13 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L54" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -2565,10 +2553,10 @@
         <v>63</v>
       </c>
       <c r="C55" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2578,13 +2566,13 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2592,10 +2580,10 @@
         <v>64</v>
       </c>
       <c r="C56" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D56" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2605,13 +2593,13 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L56" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2619,10 +2607,10 @@
         <v>65</v>
       </c>
       <c r="C57" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2632,13 +2620,13 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L57" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2646,10 +2634,10 @@
         <v>66</v>
       </c>
       <c r="C58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2659,13 +2647,13 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L58" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2673,10 +2661,10 @@
         <v>67</v>
       </c>
       <c r="C59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2686,13 +2674,13 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L59" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -2700,10 +2688,10 @@
         <v>68</v>
       </c>
       <c r="C60" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2713,13 +2701,13 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L60" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -2727,10 +2715,10 @@
         <v>69</v>
       </c>
       <c r="C61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2740,24 +2728,24 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L61" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>70</v>
+        <v>117</v>
       </c>
       <c r="C62" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2767,24 +2755,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L62" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>119</v>
+        <v>70</v>
       </c>
       <c r="C63" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2794,13 +2782,13 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L63" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -2808,10 +2796,10 @@
         <v>71</v>
       </c>
       <c r="C64" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D64" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2821,13 +2809,13 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78021_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L64" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
@@ -2835,10 +2823,10 @@
         <v>72</v>
       </c>
       <c r="C65" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D65" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2848,13 +2836,13 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78021_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L65" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
@@ -2862,10 +2850,10 @@
         <v>73</v>
       </c>
       <c r="C66" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D66" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2875,13 +2863,13 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L66" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
@@ -2889,10 +2877,10 @@
         <v>74</v>
       </c>
       <c r="C67" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D67" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2902,13 +2890,13 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G106" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L67" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
@@ -2916,10 +2904,10 @@
         <v>75</v>
       </c>
       <c r="C68" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D68" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2929,13 +2917,13 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L68" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
@@ -2943,10 +2931,10 @@
         <v>76</v>
       </c>
       <c r="C69" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D69" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2956,13 +2944,13 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L69" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -2970,10 +2958,10 @@
         <v>77</v>
       </c>
       <c r="C70" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D70" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2983,13 +2971,13 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L70" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -2997,10 +2985,10 @@
         <v>78</v>
       </c>
       <c r="C71" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3010,24 +2998,24 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L71" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>79</v>
+        <v>109</v>
       </c>
       <c r="C72" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D72" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3037,24 +3025,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_30618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L72" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="C73" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D73" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3064,13 +3052,13 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_30618_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L73" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -3078,10 +3066,10 @@
         <v>80</v>
       </c>
       <c r="C74" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D74" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3091,13 +3079,13 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51443_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L74" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -3105,10 +3093,10 @@
         <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D75" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3118,24 +3106,24 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L75" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>82</v>
+        <v>114</v>
       </c>
       <c r="C76" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D76" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3145,24 +3133,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L76" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>116</v>
+        <v>82</v>
       </c>
       <c r="C77" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D77" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3172,24 +3160,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L77" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>83</v>
+        <v>12</v>
       </c>
       <c r="C78" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D78" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3199,24 +3187,24 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51913_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L78" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C79" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D79" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3226,24 +3214,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L79" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>12</v>
+        <v>84</v>
       </c>
       <c r="C80" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D80" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3253,13 +3241,13 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L80" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -3267,10 +3255,10 @@
         <v>85</v>
       </c>
       <c r="C81" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D81" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3280,13 +3268,13 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41679_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L81" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -3294,10 +3282,10 @@
         <v>86</v>
       </c>
       <c r="C82" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3307,24 +3295,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L82" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
       <c r="C83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D83" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3334,24 +3322,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41679_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L83" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>88</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D84" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3361,24 +3349,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L84" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="C85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D85" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3388,24 +3376,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L85" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>110</v>
+        <v>88</v>
       </c>
       <c r="C86" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D86" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3415,13 +3403,13 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L86" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
@@ -3429,10 +3417,10 @@
         <v>89</v>
       </c>
       <c r="C87" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D87" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3442,13 +3430,13 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L87" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -3456,10 +3444,10 @@
         <v>90</v>
       </c>
       <c r="C88" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D88" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3469,13 +3457,13 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L88" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -3483,10 +3471,10 @@
         <v>91</v>
       </c>
       <c r="C89" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D89" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3496,13 +3484,13 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L89" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -3510,10 +3498,10 @@
         <v>92</v>
       </c>
       <c r="C90" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D90" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3523,13 +3511,13 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L90" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -3537,10 +3525,10 @@
         <v>93</v>
       </c>
       <c r="C91" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D91" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3550,13 +3538,13 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L91" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -3564,10 +3552,10 @@
         <v>94</v>
       </c>
       <c r="C92" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D92" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3577,13 +3565,13 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L92" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -3591,10 +3579,10 @@
         <v>95</v>
       </c>
       <c r="C93" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3604,13 +3592,13 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L93" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -3618,10 +3606,10 @@
         <v>96</v>
       </c>
       <c r="C94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D94" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3631,13 +3619,13 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L94" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -3645,10 +3633,10 @@
         <v>97</v>
       </c>
       <c r="C95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D95" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3658,13 +3646,13 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L95" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -3672,10 +3660,10 @@
         <v>98</v>
       </c>
       <c r="C96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D96" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3685,24 +3673,24 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61305_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L96" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="C97" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3712,24 +3700,24 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_61309_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D98" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3739,24 +3727,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51901_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L98" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>117</v>
+        <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D99" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3766,13 +3754,13 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_61309_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L99" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
@@ -3780,10 +3768,10 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D100" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3793,13 +3781,13 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51901_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L100" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
@@ -3807,10 +3795,10 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D101" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3820,13 +3808,13 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L101" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
@@ -3834,10 +3822,10 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D102" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3847,13 +3835,13 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L102" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
@@ -3861,10 +3849,10 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D103" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3874,13 +3862,13 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L103" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
@@ -3888,10 +3876,10 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D104" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3901,13 +3889,13 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41611_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L104" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
@@ -3915,10 +3903,10 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D105" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3928,13 +3916,13 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L105" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
@@ -3942,10 +3930,10 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D106" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3955,67 +3943,13 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41611_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201712_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L106" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" t="s">
-        <v>113</v>
-      </c>
-      <c r="D107" t="s">
-        <v>121</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" ref="G107:G108" si="2">$K107&amp;"\"&amp;L107</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41613_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K107" t="s">
-        <v>120</v>
-      </c>
-      <c r="L107" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>109</v>
-      </c>
-      <c r="C108" t="s">
-        <v>113</v>
-      </c>
-      <c r="D108" t="s">
-        <v>121</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="2"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201711_41618_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K108" t="s">
-        <v>120</v>
-      </c>
-      <c r="L108" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="236">
   <si>
     <t>msg</t>
   </si>
@@ -81,9 +81,6 @@
     <t>Emil.Filev@henryschein.ca</t>
   </si>
   <si>
-    <t>Steve.Cloutier@henryschein.ca</t>
-  </si>
-  <si>
     <t>Stan.Sharivker@henryschein.ca</t>
   </si>
   <si>
@@ -201,149 +198,542 @@
     <t>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm</t>
   </si>
   <si>
-    <t>EST Commission Summary for February 2018</t>
-  </si>
-  <si>
-    <t>201802_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51424_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_61309_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51901_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41611_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201802_41613_ESTCommissionStatement.pdf</t>
+    <t>Steve.Bizri@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ed.Corneileus@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Todd.Reynolds@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rocky.Tummillo@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Stephen.Mitton@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Fatos.Terova@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Pierre.Laliberte@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mark.Moore@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Roger.Birdsell@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Darek.Zemetro@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Kevin.Sakell@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ian.Walker@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Eric.Vigneault@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Xavier.Bourret@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Karl.Lambert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ciro.Mantilla@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Shawn.Hunter@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Martin.Schneider@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dan.Boyko@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dave.Williams@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Gerrit.Vandenberg@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mike.Thomson@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Wayne.Sakowsky@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dino.Lisi@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Leon.Hall@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Paul.Macdougall@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jason.Polnau@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alex.Szostakowski@henryschein.ca</t>
+  </si>
+  <si>
+    <t>John.Goodwin@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Cory.Shumila@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Yanick.deMontigny@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Carl.Donohue@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Charles.Gilbert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rick.Stamm@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Lyndon.Perrault@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Robert.Shandro@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ian.Colgur@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Richard.Peddle@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Alexander.Salarda@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mitchell.Rasmussen@Henryschein.ca</t>
+  </si>
+  <si>
+    <t>Graham.Mann@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Daniel.Nicholaichuk@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Babar.Memon@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Robert.Rudd@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Geoff.Hamelin@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Josh.Mccotter@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Martyn.Sharp@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Derek.Albert@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Keegan.Dunn@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Omar.Alrayiss@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Peter.Muscat@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Charles.Ivy@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Mark.Carten@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Rene.Erskine@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michael.Vaillancourt@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Peter.Morris@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Yanick.Lefebvre@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Ed.Smith@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Frank.Curley@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jason.Kirkbride@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Jay.Abaya@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Robert.Cluett@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Michael.Johnston@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Dave.Lucas@henryschein.ca</t>
+  </si>
+  <si>
+    <t>James.Fyles@henryschein.ca</t>
+  </si>
+  <si>
+    <t>Adriano.Franceschetti@henryschein.ca</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for March 2018</t>
+  </si>
+  <si>
+    <t>201803_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_20404_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40316_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51443_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41679_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51915_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_61309_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51901_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41611_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201803_20417_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -354,6 +744,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -396,16 +794,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -686,7 +1087,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N47"/>
+  <dimension ref="A1:N112"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -732,7 +1133,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -745,15 +1146,15 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>EST Commission Summary for February 2018</v>
+        <v>EST Commission Summary for March 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -763,26 +1164,26 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201802_51423_ESTCommissionStatement.pdf</v>
+        <v>201803_61313_ESTCommissionStatement.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -791,26 +1192,26 @@
         <v>1</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G47" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51423_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>126</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -820,25 +1221,25 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L4" t="s">
-        <v>62</v>
+        <v>127</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D5" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -848,25 +1249,25 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L5" t="s">
-        <v>63</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D6" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -876,25 +1277,25 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D7" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -904,25 +1305,25 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>65</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -932,25 +1333,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L8" t="s">
-        <v>66</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>61</v>
       </c>
       <c r="C9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D9" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -960,25 +1361,25 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>67</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -988,25 +1389,25 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L10" t="s">
-        <v>68</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1016,25 +1417,25 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51424_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20404_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L11" t="s">
-        <v>69</v>
+        <v>134</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D12" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1044,25 +1445,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L12" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C13" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D13" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1072,25 +1473,25 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L13" t="s">
-        <v>71</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>63</v>
       </c>
       <c r="C14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1100,25 +1501,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L14" t="s">
-        <v>72</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1128,25 +1529,25 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L15" t="s">
-        <v>73</v>
+        <v>138</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D16" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1156,25 +1557,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L16" t="s">
-        <v>74</v>
+        <v>139</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="C17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1184,25 +1585,25 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L17" t="s">
-        <v>75</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1212,25 +1613,25 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L18" t="s">
-        <v>76</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1240,24 +1641,24 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L19" t="s">
-        <v>77</v>
+        <v>142</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1267,24 +1668,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L20" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C21" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1294,24 +1695,24 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L21" t="s">
-        <v>79</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1321,24 +1722,24 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L22" t="s">
-        <v>80</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C23" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D23" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1348,24 +1749,24 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L23" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1375,24 +1776,24 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L24" t="s">
-        <v>82</v>
+        <v>147</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C25" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1402,24 +1803,24 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L25" t="s">
-        <v>83</v>
+        <v>148</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1429,24 +1830,24 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>149</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1456,24 +1857,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L27" t="s">
-        <v>85</v>
+        <v>150</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D28" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1483,24 +1884,24 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L28" t="s">
-        <v>86</v>
+        <v>151</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="C29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D29" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1510,24 +1911,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L29" t="s">
-        <v>87</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="C30" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1537,24 +1938,24 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L30" t="s">
-        <v>88</v>
+        <v>153</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="C31" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1564,24 +1965,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L31" t="s">
-        <v>89</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D32" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1591,24 +1992,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L32" t="s">
-        <v>90</v>
+        <v>155</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="C33" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1618,24 +2019,24 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L33" t="s">
-        <v>91</v>
+        <v>156</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>43</v>
+        <v>73</v>
       </c>
       <c r="C34" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D34" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1645,24 +2046,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L34" t="s">
-        <v>92</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="C35" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D35" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1672,24 +2073,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L35" t="s">
-        <v>93</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>45</v>
+        <v>74</v>
       </c>
       <c r="C36" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D36" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -1699,24 +2100,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L36" t="s">
-        <v>94</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D37" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -1726,24 +2127,24 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L37" t="s">
-        <v>95</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C38" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -1753,24 +2154,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L38" t="s">
-        <v>96</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
       <c r="C39" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -1780,24 +2181,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_61309_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L39" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>48</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D40" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -1807,24 +2208,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51901_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L40" t="s">
-        <v>98</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D41" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -1834,24 +2235,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L41" t="s">
-        <v>99</v>
+        <v>164</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1861,24 +2262,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L42" t="s">
-        <v>100</v>
+        <v>165</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D43" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -1888,24 +2289,24 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L43" t="s">
-        <v>101</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>52</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -1915,24 +2316,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L44" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="C45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -1942,24 +2343,24 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L45" t="s">
-        <v>103</v>
+        <v>168</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
       <c r="C46" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -1969,24 +2370,24 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41611_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L46" t="s">
-        <v>104</v>
+        <v>169</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C47" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D47" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -1996,13 +2397,1768 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201802_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L47" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" t="s">
+        <v>55</v>
+      </c>
+      <c r="D48" t="s">
+        <v>125</v>
+      </c>
+      <c r="E48">
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_25010_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K48" t="s">
+        <v>58</v>
+      </c>
+      <c r="L48" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="49" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" t="s">
+        <v>55</v>
+      </c>
+      <c r="D49" t="s">
+        <v>125</v>
+      </c>
+      <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="F49">
+        <v>1</v>
+      </c>
+      <c r="G49" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78012_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K49" t="s">
+        <v>58</v>
+      </c>
+      <c r="L49" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="50" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>82</v>
+      </c>
+      <c r="C50" t="s">
+        <v>55</v>
+      </c>
+      <c r="D50" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20413_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K50" t="s">
+        <v>58</v>
+      </c>
+      <c r="L50" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="51" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>36</v>
+      </c>
+      <c r="C51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>125</v>
+      </c>
+      <c r="E51">
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78013_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K51" t="s">
+        <v>58</v>
+      </c>
+      <c r="L51" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C52" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" t="s">
+        <v>125</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40319_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K52" t="s">
+        <v>58</v>
+      </c>
+      <c r="L52" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="53" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>84</v>
+      </c>
+      <c r="C53" t="s">
+        <v>55</v>
+      </c>
+      <c r="D53" t="s">
+        <v>125</v>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40320_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K53" t="s">
+        <v>58</v>
+      </c>
+      <c r="L53" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="54" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>85</v>
+      </c>
+      <c r="C54" t="s">
+        <v>55</v>
+      </c>
+      <c r="D54" t="s">
+        <v>125</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+      <c r="F54">
+        <v>1</v>
+      </c>
+      <c r="G54" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60426_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K54" t="s">
+        <v>58</v>
+      </c>
+      <c r="L54" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="55" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>86</v>
+      </c>
+      <c r="C55" t="s">
+        <v>55</v>
+      </c>
+      <c r="D55" t="s">
+        <v>125</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40322_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K55" t="s">
+        <v>58</v>
+      </c>
+      <c r="L55" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="56" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>87</v>
+      </c>
+      <c r="C56" t="s">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>125</v>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30613_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K56" t="s">
+        <v>58</v>
+      </c>
+      <c r="L56" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="57" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>88</v>
+      </c>
+      <c r="C57" t="s">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20414_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K57" t="s">
+        <v>58</v>
+      </c>
+      <c r="L57" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>89</v>
+      </c>
+      <c r="C58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D58" t="s">
+        <v>125</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78018_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K58" t="s">
+        <v>58</v>
+      </c>
+      <c r="L58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>90</v>
+      </c>
+      <c r="C59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>125</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30615_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K59" t="s">
+        <v>58</v>
+      </c>
+      <c r="L59" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="60" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>91</v>
+      </c>
+      <c r="C60" t="s">
+        <v>55</v>
+      </c>
+      <c r="D60" t="s">
+        <v>125</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40326_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K60" t="s">
+        <v>58</v>
+      </c>
+      <c r="L60" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="61" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>92</v>
+      </c>
+      <c r="C61" t="s">
+        <v>55</v>
+      </c>
+      <c r="D61" t="s">
+        <v>125</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20415_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K61" t="s">
+        <v>58</v>
+      </c>
+      <c r="L61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="62" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>93</v>
+      </c>
+      <c r="C62" t="s">
+        <v>55</v>
+      </c>
+      <c r="D62" t="s">
+        <v>125</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40328_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K62" t="s">
+        <v>58</v>
+      </c>
+      <c r="L62" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="63" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>94</v>
+      </c>
+      <c r="C63" t="s">
+        <v>55</v>
+      </c>
+      <c r="D63" t="s">
+        <v>125</v>
+      </c>
+      <c r="E63">
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78023_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K63" t="s">
+        <v>58</v>
+      </c>
+      <c r="L63" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>95</v>
+      </c>
+      <c r="C64" t="s">
+        <v>55</v>
+      </c>
+      <c r="D64" t="s">
+        <v>125</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60431_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K64" t="s">
+        <v>58</v>
+      </c>
+      <c r="L64" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>96</v>
+      </c>
+      <c r="C65" t="s">
+        <v>55</v>
+      </c>
+      <c r="D65" t="s">
+        <v>125</v>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60432_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K65" t="s">
+        <v>58</v>
+      </c>
+      <c r="L65" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>97</v>
+      </c>
+      <c r="C66" t="s">
+        <v>55</v>
+      </c>
+      <c r="D66" t="s">
+        <v>125</v>
+      </c>
+      <c r="E66">
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30617_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K66" t="s">
+        <v>58</v>
+      </c>
+      <c r="L66" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>98</v>
+      </c>
+      <c r="C67" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" t="s">
+        <v>125</v>
+      </c>
+      <c r="E67">
+        <v>1</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="str">
+        <f t="shared" ref="G67:G112" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78024_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K67" t="s">
+        <v>58</v>
+      </c>
+      <c r="L67" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" t="s">
+        <v>55</v>
+      </c>
+      <c r="D68" t="s">
+        <v>125</v>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40331_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K68" t="s">
+        <v>58</v>
+      </c>
+      <c r="L68" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" t="s">
+        <v>55</v>
+      </c>
+      <c r="D69" t="s">
+        <v>125</v>
+      </c>
+      <c r="E69">
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40332_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K69" t="s">
+        <v>58</v>
+      </c>
+      <c r="L69" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>101</v>
+      </c>
+      <c r="C70" t="s">
+        <v>55</v>
+      </c>
+      <c r="D70" t="s">
+        <v>125</v>
+      </c>
+      <c r="E70">
+        <v>1</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40334_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K70" t="s">
+        <v>58</v>
+      </c>
+      <c r="L70" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>102</v>
+      </c>
+      <c r="C71" t="s">
+        <v>55</v>
+      </c>
+      <c r="D71" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71">
+        <v>1</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78028_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K71" t="s">
+        <v>58</v>
+      </c>
+      <c r="L71" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>103</v>
+      </c>
+      <c r="C72" t="s">
+        <v>55</v>
+      </c>
+      <c r="D72" t="s">
+        <v>125</v>
+      </c>
+      <c r="E72">
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40316_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K72" t="s">
+        <v>58</v>
+      </c>
+      <c r="L72" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>104</v>
+      </c>
+      <c r="C73" t="s">
+        <v>55</v>
+      </c>
+      <c r="D73" t="s">
+        <v>125</v>
+      </c>
+      <c r="E73">
+        <v>1</v>
+      </c>
+      <c r="F73">
+        <v>1</v>
+      </c>
+      <c r="G73" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78029_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K73" t="s">
+        <v>58</v>
+      </c>
+      <c r="L73" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
         <v>105</v>
+      </c>
+      <c r="C74" t="s">
+        <v>55</v>
+      </c>
+      <c r="D74" t="s">
+        <v>125</v>
+      </c>
+      <c r="E74">
+        <v>1</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40335_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K74" t="s">
+        <v>58</v>
+      </c>
+      <c r="L74" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>106</v>
+      </c>
+      <c r="C75" t="s">
+        <v>55</v>
+      </c>
+      <c r="D75" t="s">
+        <v>125</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60435_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K75" t="s">
+        <v>58</v>
+      </c>
+      <c r="L75" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>37</v>
+      </c>
+      <c r="C76" t="s">
+        <v>55</v>
+      </c>
+      <c r="D76" t="s">
+        <v>125</v>
+      </c>
+      <c r="E76">
+        <v>1</v>
+      </c>
+      <c r="F76">
+        <v>1</v>
+      </c>
+      <c r="G76" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51443_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K76" t="s">
+        <v>58</v>
+      </c>
+      <c r="L76" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>107</v>
+      </c>
+      <c r="C77" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" t="s">
+        <v>125</v>
+      </c>
+      <c r="E77">
+        <v>1</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41671_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K77" t="s">
+        <v>58</v>
+      </c>
+      <c r="L77" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="78" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" t="s">
+        <v>55</v>
+      </c>
+      <c r="D78" t="s">
+        <v>125</v>
+      </c>
+      <c r="E78">
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <v>1</v>
+      </c>
+      <c r="G78" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41674_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K78" t="s">
+        <v>58</v>
+      </c>
+      <c r="L78" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>109</v>
+      </c>
+      <c r="C79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D79" t="s">
+        <v>125</v>
+      </c>
+      <c r="E79">
+        <v>1</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41678_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K79" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="80" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>110</v>
+      </c>
+      <c r="C80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D80" t="s">
+        <v>125</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90215_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K80" t="s">
+        <v>58</v>
+      </c>
+      <c r="L80" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>111</v>
+      </c>
+      <c r="C81" t="s">
+        <v>55</v>
+      </c>
+      <c r="D81" t="s">
+        <v>125</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90219_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K81" t="s">
+        <v>58</v>
+      </c>
+      <c r="L81" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>112</v>
+      </c>
+      <c r="C82" t="s">
+        <v>55</v>
+      </c>
+      <c r="D82" t="s">
+        <v>125</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41682_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K82" t="s">
+        <v>58</v>
+      </c>
+      <c r="L82" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>113</v>
+      </c>
+      <c r="C83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D83" t="s">
+        <v>125</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41679_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K83" t="s">
+        <v>58</v>
+      </c>
+      <c r="L83" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+      <c r="C84" t="s">
+        <v>55</v>
+      </c>
+      <c r="D84" t="s">
+        <v>125</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61327_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K84" t="s">
+        <v>58</v>
+      </c>
+      <c r="L84" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+      <c r="C85" t="s">
+        <v>55</v>
+      </c>
+      <c r="D85" t="s">
+        <v>125</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51461_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K85" t="s">
+        <v>58</v>
+      </c>
+      <c r="L85" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>116</v>
+      </c>
+      <c r="C86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D86" t="s">
+        <v>125</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_70902_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K86" t="s">
+        <v>58</v>
+      </c>
+      <c r="L86" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>117</v>
+      </c>
+      <c r="C87" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" t="s">
+        <v>125</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41693_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K87" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>118</v>
+      </c>
+      <c r="C88" t="s">
+        <v>55</v>
+      </c>
+      <c r="D88" t="s">
+        <v>125</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61331_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K88" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>119</v>
+      </c>
+      <c r="C89" t="s">
+        <v>55</v>
+      </c>
+      <c r="D89" t="s">
+        <v>125</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51915_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K89" t="s">
+        <v>58</v>
+      </c>
+      <c r="L89" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>120</v>
+      </c>
+      <c r="C90" t="s">
+        <v>55</v>
+      </c>
+      <c r="D90" t="s">
+        <v>125</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90216_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K90" t="s">
+        <v>58</v>
+      </c>
+      <c r="L90" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>38</v>
+      </c>
+      <c r="C91" t="s">
+        <v>55</v>
+      </c>
+      <c r="D91" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90207_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K91" t="s">
+        <v>58</v>
+      </c>
+      <c r="L91" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>121</v>
+      </c>
+      <c r="C92" t="s">
+        <v>55</v>
+      </c>
+      <c r="D92" t="s">
+        <v>125</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90210_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K92" t="s">
+        <v>58</v>
+      </c>
+      <c r="L92" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>39</v>
+      </c>
+      <c r="C93" t="s">
+        <v>55</v>
+      </c>
+      <c r="D93" t="s">
+        <v>125</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90205_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K93" t="s">
+        <v>58</v>
+      </c>
+      <c r="L93" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="94" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="C94" t="s">
+        <v>55</v>
+      </c>
+      <c r="D94" t="s">
+        <v>125</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_50603_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K94" t="s">
+        <v>58</v>
+      </c>
+      <c r="L94" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="95" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="C95" t="s">
+        <v>55</v>
+      </c>
+      <c r="D95" t="s">
+        <v>125</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51427_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K95" t="s">
+        <v>58</v>
+      </c>
+      <c r="L95" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="96" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" t="s">
+        <v>55</v>
+      </c>
+      <c r="D96" t="s">
+        <v>125</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51403_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K96" t="s">
+        <v>58</v>
+      </c>
+      <c r="L96" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="97" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>43</v>
+      </c>
+      <c r="C97" t="s">
+        <v>55</v>
+      </c>
+      <c r="D97" t="s">
+        <v>125</v>
+      </c>
+      <c r="E97">
+        <v>1</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51420_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K97" t="s">
+        <v>58</v>
+      </c>
+      <c r="L97" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="98" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>44</v>
+      </c>
+      <c r="C98" t="s">
+        <v>55</v>
+      </c>
+      <c r="D98" t="s">
+        <v>125</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51418_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K98" t="s">
+        <v>58</v>
+      </c>
+      <c r="L98" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="99" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" t="s">
+        <v>55</v>
+      </c>
+      <c r="D99" t="s">
+        <v>125</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51413_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K99" t="s">
+        <v>58</v>
+      </c>
+      <c r="L99" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>46</v>
+      </c>
+      <c r="C100" t="s">
+        <v>55</v>
+      </c>
+      <c r="D100" t="s">
+        <v>125</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61315_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K100" t="s">
+        <v>58</v>
+      </c>
+      <c r="L100" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>122</v>
+      </c>
+      <c r="C101" t="s">
+        <v>55</v>
+      </c>
+      <c r="D101" t="s">
+        <v>125</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61305_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K101" t="s">
+        <v>58</v>
+      </c>
+      <c r="L101" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>57</v>
+      </c>
+      <c r="C102" t="s">
+        <v>55</v>
+      </c>
+      <c r="D102" t="s">
+        <v>125</v>
+      </c>
+      <c r="E102">
+        <v>1</v>
+      </c>
+      <c r="F102">
+        <v>1</v>
+      </c>
+      <c r="G102" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61309_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K102" t="s">
+        <v>58</v>
+      </c>
+      <c r="L102" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>47</v>
+      </c>
+      <c r="C103" t="s">
+        <v>55</v>
+      </c>
+      <c r="D103" t="s">
+        <v>125</v>
+      </c>
+      <c r="E103">
+        <v>1</v>
+      </c>
+      <c r="F103">
+        <v>1</v>
+      </c>
+      <c r="G103" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51901_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K103" t="s">
+        <v>58</v>
+      </c>
+      <c r="L103" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>48</v>
+      </c>
+      <c r="C104" t="s">
+        <v>55</v>
+      </c>
+      <c r="D104" t="s">
+        <v>125</v>
+      </c>
+      <c r="E104">
+        <v>1</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51904_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K104" t="s">
+        <v>58</v>
+      </c>
+      <c r="L104" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C105" t="s">
+        <v>55</v>
+      </c>
+      <c r="D105" t="s">
+        <v>125</v>
+      </c>
+      <c r="E105">
+        <v>1</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41601_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K105" t="s">
+        <v>58</v>
+      </c>
+      <c r="L105" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>50</v>
+      </c>
+      <c r="C106" t="s">
+        <v>55</v>
+      </c>
+      <c r="D106" t="s">
+        <v>125</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+      <c r="F106">
+        <v>1</v>
+      </c>
+      <c r="G106" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41604_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K106" t="s">
+        <v>58</v>
+      </c>
+      <c r="L106" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>51</v>
+      </c>
+      <c r="C107" t="s">
+        <v>55</v>
+      </c>
+      <c r="D107" t="s">
+        <v>125</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>1</v>
+      </c>
+      <c r="G107" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41608_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K107" t="s">
+        <v>58</v>
+      </c>
+      <c r="L107" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>52</v>
+      </c>
+      <c r="C108" t="s">
+        <v>55</v>
+      </c>
+      <c r="D108" t="s">
+        <v>125</v>
+      </c>
+      <c r="E108">
+        <v>1</v>
+      </c>
+      <c r="F108">
+        <v>1</v>
+      </c>
+      <c r="G108" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41602_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K108" t="s">
+        <v>58</v>
+      </c>
+      <c r="L108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>53</v>
+      </c>
+      <c r="C109" t="s">
+        <v>55</v>
+      </c>
+      <c r="D109" t="s">
+        <v>125</v>
+      </c>
+      <c r="E109">
+        <v>1</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41611_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K109" t="s">
+        <v>58</v>
+      </c>
+      <c r="L109" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C110" t="s">
+        <v>55</v>
+      </c>
+      <c r="D110" t="s">
+        <v>125</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41613_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K110" t="s">
+        <v>58</v>
+      </c>
+      <c r="L110" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>123</v>
+      </c>
+      <c r="C111" t="s">
+        <v>55</v>
+      </c>
+      <c r="D111" t="s">
+        <v>125</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41618_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K111" t="s">
+        <v>58</v>
+      </c>
+      <c r="L111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>124</v>
+      </c>
+      <c r="C112" t="s">
+        <v>55</v>
+      </c>
+      <c r="D112" t="s">
+        <v>125</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+      <c r="F112">
+        <v>1</v>
+      </c>
+      <c r="G112" t="str">
+        <f t="shared" si="1"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20417_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K112" t="s">
+        <v>58</v>
+      </c>
+      <c r="L112" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\zDev\BR_Scripts\BRPoSh\BR_Mailer\J040_COM_EST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J040_COM_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Trans Page" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="230">
   <si>
     <t>msg</t>
   </si>
@@ -162,9 +162,6 @@
     <t>William.Brisson@henryschein.ca</t>
   </si>
   <si>
-    <t>Michael.Luck@henryschein.ca</t>
-  </si>
-  <si>
     <t>Bradley.Robinson@henryschein.ca</t>
   </si>
   <si>
@@ -180,9 +177,6 @@
     <t>David.Dabideen@henryschein.ca</t>
   </si>
   <si>
-    <t>Doug.Harvey@henryschein.ca</t>
-  </si>
-  <si>
     <t>Efrem.Samaroo@henryschein.ca</t>
   </si>
   <si>
@@ -207,9 +201,6 @@
     <t>Todd.Reynolds@henryschein.ca</t>
   </si>
   <si>
-    <t>Rocky.Tummillo@henryschein.ca</t>
-  </si>
-  <si>
     <t>Stephen.Mitton@henryschein.ca</t>
   </si>
   <si>
@@ -396,343 +387,334 @@
     <t>Adriano.Franceschetti@henryschein.ca</t>
   </si>
   <si>
-    <t>EST Commission Summary for March 2018</t>
-  </si>
-  <si>
-    <t>201803_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_20404_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78028_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40316_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_78029_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_40335_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_60435_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41679_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51461_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51915_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_61309_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51901_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41611_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201803_20417_ESTCommissionStatement.pdf</t>
+    <t>EST Commission Summary for April 2018</t>
+  </si>
+  <si>
+    <t>201804_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40316_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51443_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41679_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51915_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_61309_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201804_20417_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1087,7 +1069,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N112"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1133,7 +1115,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1150,11 +1132,11 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="str">
         <f>D3</f>
-        <v>EST Commission Summary for March 2018</v>
+        <v>EST Commission Summary for April 2018</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1164,26 +1146,26 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L2" t="str">
         <f>L3</f>
-        <v>201803_61313_ESTCommissionStatement.pdf</v>
+        <v>201804_61313_ESTCommissionStatement.pdf</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D3" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1193,13 +1175,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L3" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1208,10 +1190,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D4" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1221,41 +1203,41 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D5" t="s">
+        <v>122</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90203_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
         <v>125</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5" t="str">
-        <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90203_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K5" t="s">
-        <v>58</v>
-      </c>
-      <c r="L5" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1264,10 +1246,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1277,13 +1259,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1292,10 +1274,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D7" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1305,13 +1287,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L7" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1320,10 +1302,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D8" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1333,25 +1315,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L8" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1361,13 +1343,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L9" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1376,10 +1358,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1389,25 +1371,25 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L10" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1417,25 +1399,25 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20404_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L11" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1445,25 +1427,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L12" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>18</v>
+        <v>60</v>
       </c>
       <c r="C13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1473,25 +1455,25 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1501,25 +1483,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>61</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1529,25 +1511,25 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L15" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
-        <v>64</v>
+        <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1557,25 +1539,25 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L16" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1585,25 +1567,25 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1613,25 +1595,25 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L18" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1641,24 +1623,24 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L19" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1668,24 +1650,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L20" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>24</v>
+        <v>62</v>
       </c>
       <c r="C21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1695,24 +1677,24 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L21" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C22" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1722,24 +1704,24 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L22" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>66</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D23" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1749,24 +1731,24 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L23" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="C24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1776,24 +1758,24 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D25" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1803,24 +1785,24 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L25" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="C26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D26" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1830,24 +1812,24 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L26" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>68</v>
+        <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1857,24 +1839,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>27</v>
+        <v>66</v>
       </c>
       <c r="C28" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D28" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1884,24 +1866,24 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L28" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>69</v>
+        <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D29" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1911,24 +1893,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L29" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D30" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1938,24 +1920,24 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L30" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D31" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1965,24 +1947,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L31" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D32" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1992,24 +1974,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L32" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D33" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2019,24 +2001,24 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D34" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2046,24 +2028,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L34" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D35" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2073,24 +2055,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L35" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C36" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D36" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2100,24 +2082,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L36" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2127,24 +2109,24 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L37" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C38" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2154,24 +2136,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2181,24 +2163,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L39" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2208,24 +2190,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>78</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D41" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2235,24 +2217,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L41" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>31</v>
+        <v>76</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2262,24 +2244,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L42" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C43" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D43" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2289,24 +2271,24 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L43" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D44" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2316,24 +2298,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L44" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2343,24 +2325,24 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L45" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>33</v>
+        <v>78</v>
       </c>
       <c r="C46" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D46" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2370,24 +2352,24 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C47" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D47" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2397,24 +2379,24 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L47" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C48" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D48" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2424,24 +2406,24 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L48" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>35</v>
+        <v>79</v>
       </c>
       <c r="C49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D49" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2451,24 +2433,24 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L49" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>82</v>
+        <v>36</v>
       </c>
       <c r="C50" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D50" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2478,24 +2460,24 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C51" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D51" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2505,24 +2487,24 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L51" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C52" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2532,24 +2514,24 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L52" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C53" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D53" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2559,24 +2541,24 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L53" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C54" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D54" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2586,24 +2568,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L54" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C55" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2613,24 +2595,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L55" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C56" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2640,24 +2622,24 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L56" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C57" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D57" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2667,24 +2649,24 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L57" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C58" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D58" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2694,24 +2676,24 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L58" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C59" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D59" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2721,24 +2703,24 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L59" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C60" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D60" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2748,24 +2730,24 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L60" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C61" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D61" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2775,24 +2757,24 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L61" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C62" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2802,24 +2784,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L62" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C63" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D63" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2829,24 +2811,24 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C64" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2856,24 +2838,24 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C65" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D65" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2883,24 +2865,24 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L65" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D66" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2910,24 +2892,24 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L66" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C67" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D67" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2936,25 +2918,25 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G112" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78024_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G67:G109" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L67" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C68" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D68" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2964,24 +2946,24 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L68" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C69" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D69" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2991,24 +2973,24 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L69" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C70" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D70" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3018,24 +3000,24 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78028_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L70" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C71" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D71" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3045,24 +3027,24 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78028_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40316_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L71" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C72" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D72" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3072,24 +3054,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40316_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78029_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L72" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C73" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D73" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3099,24 +3081,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_78029_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40335_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L73" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C74" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D74" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3126,24 +3108,24 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_40335_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60435_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L74" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>106</v>
+        <v>37</v>
       </c>
       <c r="C75" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D75" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3153,24 +3135,24 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_60435_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51443_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L75" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="C76" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3180,24 +3162,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L76" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C77" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D77" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3207,24 +3189,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L77" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C78" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D78" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3234,24 +3216,24 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L78" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D79" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3261,24 +3243,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L79" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D80" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3288,24 +3270,24 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L80" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C81" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D81" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3315,24 +3297,24 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L81" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C82" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D82" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3342,24 +3324,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41679_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L82" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C83" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D83" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3369,24 +3351,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41679_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L83" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C84" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D84" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3396,24 +3378,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51461_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L84" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C85" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D85" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3423,24 +3405,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51461_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L85" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C86" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D86" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3450,24 +3432,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L86" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D87" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3477,24 +3459,24 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L87" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C88" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D88" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3504,24 +3486,24 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51915_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L88" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C89" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D89" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3531,24 +3513,24 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51915_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L89" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="C90" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D90" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3558,24 +3540,24 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L90" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>38</v>
+        <v>118</v>
       </c>
       <c r="C91" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D91" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3585,24 +3567,24 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L91" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C92" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D92" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3612,24 +3594,24 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L92" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C93" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D93" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3639,24 +3621,24 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L93" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C94" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D94" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3666,24 +3648,24 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L94" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C95" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D95" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3693,24 +3675,24 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L95" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C96" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D96" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3720,24 +3702,24 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L96" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C97" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D97" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3747,24 +3729,24 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L97" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C98" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D98" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3774,24 +3756,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C99" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D99" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3801,24 +3783,24 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>46</v>
+        <v>119</v>
       </c>
       <c r="C100" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D100" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3828,24 +3810,24 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61305_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L100" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>122</v>
+        <v>55</v>
       </c>
       <c r="C101" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D101" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3855,24 +3837,24 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61309_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L101" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C102" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D102" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3882,24 +3864,24 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_61309_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L102" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C103" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D103" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3909,24 +3891,24 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51901_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L103" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D104" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3936,24 +3918,24 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L104" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="105" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C105" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D105" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E105">
         <v>1</v>
@@ -3963,24 +3945,24 @@
       </c>
       <c r="G105" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K105" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L105" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="106" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C106" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D106" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E106">
         <v>1</v>
@@ -3990,24 +3972,24 @@
       </c>
       <c r="G106" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K106" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L106" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="107" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C107" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D107" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E107">
         <v>1</v>
@@ -4017,24 +3999,24 @@
       </c>
       <c r="G107" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K107" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L107" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="108" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B108" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="C108" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D108" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E108">
         <v>1</v>
@@ -4044,24 +4026,24 @@
       </c>
       <c r="G108" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K108" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L108" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="109" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B109" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C109" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D109" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E109">
         <v>1</v>
@@ -4071,94 +4053,13 @@
       </c>
       <c r="G109" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41611_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20417_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K109" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L109" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="110" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B110" t="s">
-        <v>54</v>
-      </c>
-      <c r="C110" t="s">
-        <v>55</v>
-      </c>
-      <c r="D110" t="s">
-        <v>125</v>
-      </c>
-      <c r="E110">
-        <v>1</v>
-      </c>
-      <c r="F110">
-        <v>1</v>
-      </c>
-      <c r="G110" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41613_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K110" t="s">
-        <v>58</v>
-      </c>
-      <c r="L110" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="111" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B111" t="s">
-        <v>123</v>
-      </c>
-      <c r="C111" t="s">
-        <v>55</v>
-      </c>
-      <c r="D111" t="s">
-        <v>125</v>
-      </c>
-      <c r="E111">
-        <v>1</v>
-      </c>
-      <c r="F111">
-        <v>1</v>
-      </c>
-      <c r="G111" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_41618_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K111" t="s">
-        <v>58</v>
-      </c>
-      <c r="L111" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="112" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B112" t="s">
-        <v>124</v>
-      </c>
-      <c r="C112" t="s">
-        <v>55</v>
-      </c>
-      <c r="D112" t="s">
-        <v>125</v>
-      </c>
-      <c r="E112">
-        <v>1</v>
-      </c>
-      <c r="F112">
-        <v>1</v>
-      </c>
-      <c r="G112" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201803_20417_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K112" t="s">
-        <v>58</v>
-      </c>
-      <c r="L112" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="550" uniqueCount="230">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="220">
   <si>
     <t>msg</t>
   </si>
@@ -129,12 +129,6 @@
     <t>Jeff.Blackett@henryschein.ca</t>
   </si>
   <si>
-    <t>Alfred.Karba@henryschein.ca</t>
-  </si>
-  <si>
-    <t>Martin.David@henryschein.ca</t>
-  </si>
-  <si>
     <t>David.Doucette@henryschein.ca</t>
   </si>
   <si>
@@ -186,9 +180,6 @@
     <t>Blank</t>
   </si>
   <si>
-    <t>Raymond.Vanneste@henryschein.ca</t>
-  </si>
-  <si>
     <t>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm</t>
   </si>
   <si>
@@ -234,9 +225,6 @@
     <t>Karl.Lambert@henryschein.ca</t>
   </si>
   <si>
-    <t>Ciro.Mantilla@henryschein.ca</t>
-  </si>
-  <si>
     <t>Shawn.Hunter@henryschein.ca</t>
   </si>
   <si>
@@ -321,9 +309,6 @@
     <t>Robert.Rudd@henryschein.ca</t>
   </si>
   <si>
-    <t>Geoff.Hamelin@henryschein.ca</t>
-  </si>
-  <si>
     <t>Josh.Mccotter@henryschein.ca</t>
   </si>
   <si>
@@ -351,9 +336,6 @@
     <t>Rene.Erskine@henryschein.ca</t>
   </si>
   <si>
-    <t>Michael.Vaillancourt@henryschein.ca</t>
-  </si>
-  <si>
     <t>Peter.Morris@henryschein.ca</t>
   </si>
   <si>
@@ -387,328 +369,316 @@
     <t>Adriano.Franceschetti@henryschein.ca</t>
   </si>
   <si>
-    <t>EST Commission Summary for April 2018</t>
-  </si>
-  <si>
-    <t>201804_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78028_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40316_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_78029_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_40335_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_60435_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51443_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41679_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51461_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51915_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_61309_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201804_20417_ESTCommissionStatement.pdf</t>
+    <t>Nathan.Morrison@henryschein.ca</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for May 2018</t>
+  </si>
+  <si>
+    <t>201805_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_25013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51915_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_61305_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201805_20417_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1069,7 +1039,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N109"/>
+  <dimension ref="A1:N104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1115,7 +1085,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1132,11 +1102,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D2" t="str">
-        <f>D3</f>
-        <v>EST Commission Summary for April 2018</v>
+        <v>51</v>
+      </c>
+      <c r="D2" t="s">
+        <v>117</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1146,26 +1115,25 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>56</v>
-      </c>
-      <c r="L2" t="str">
-        <f>L3</f>
-        <v>201804_61313_ESTCommissionStatement.pdf</v>
+        <v>53</v>
+      </c>
+      <c r="L2" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1175,13 +1143,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L3" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1190,10 +1158,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1203,25 +1171,25 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1231,13 +1199,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1246,10 +1214,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1259,13 +1227,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1274,26 +1242,26 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
+        <v>117</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41647_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K7" t="s">
+        <v>53</v>
+      </c>
+      <c r="L7" t="s">
         <v>122</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7" t="str">
-        <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41647_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K7" t="s">
-        <v>56</v>
-      </c>
-      <c r="L7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1302,10 +1270,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1315,25 +1283,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L8" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1343,13 +1311,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L9" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1358,10 +1326,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1371,13 +1339,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L10" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1386,10 +1354,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1399,13 +1367,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L11" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1414,10 +1382,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1427,25 +1395,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1455,13 +1423,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L13" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1470,10 +1438,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1483,25 +1451,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L14" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1511,13 +1479,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L15" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1526,10 +1494,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1539,13 +1507,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1554,10 +1522,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1567,13 +1535,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L17" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1582,10 +1550,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1595,13 +1563,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L18" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1610,10 +1578,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1623,13 +1591,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L19" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1637,10 +1605,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1650,24 +1618,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L20" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1677,24 +1645,24 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L21" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C22" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1704,13 +1672,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L22" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1718,10 +1686,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1731,24 +1699,24 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L23" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1758,13 +1726,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L24" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1772,10 +1740,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1785,24 +1753,24 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L25" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1812,13 +1780,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L26" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1826,10 +1794,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1839,24 +1807,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L27" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1866,13 +1834,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L28" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1880,10 +1848,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1893,24 +1861,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L29" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1920,24 +1888,24 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L30" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C31" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1947,24 +1915,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C32" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1974,24 +1942,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L32" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -2001,13 +1969,13 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L33" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -2015,10 +1983,10 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -2028,24 +1996,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L34" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C35" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2055,24 +2023,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L35" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C36" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2082,24 +2050,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L36" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2109,24 +2077,24 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L37" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2136,24 +2104,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L38" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2163,24 +2131,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L39" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>75</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2190,24 +2158,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L40" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
       <c r="C41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2217,24 +2185,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L41" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2244,24 +2212,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L42" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>77</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2271,24 +2239,24 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L43" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2298,24 +2266,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L44" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
       <c r="C45" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2325,24 +2293,24 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L45" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>78</v>
+        <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2352,24 +2320,24 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L46" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2379,24 +2347,24 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L47" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
       <c r="C48" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2406,24 +2374,24 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L48" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C49" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2433,24 +2401,24 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L49" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="C50" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2460,24 +2428,24 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78013_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L50" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C51" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2487,24 +2455,24 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L51" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C52" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2514,24 +2482,24 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L52" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C53" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2541,24 +2509,24 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L53" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C54" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2568,24 +2536,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L54" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2595,24 +2563,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L55" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C56" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2622,24 +2590,24 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L56" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C57" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2649,24 +2617,24 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L57" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C58" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2676,24 +2644,24 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L58" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C59" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2703,24 +2671,24 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L59" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C60" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2730,24 +2698,24 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L60" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C61" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2757,24 +2725,24 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L61" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C62" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2784,24 +2752,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L62" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C63" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2811,24 +2779,24 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L63" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2838,24 +2806,24 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L64" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C65" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2865,24 +2833,24 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L65" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C66" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2892,24 +2860,24 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L66" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2918,25 +2886,25 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G109" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40331_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G67:G104" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L67" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>97</v>
+        <v>116</v>
       </c>
       <c r="C68" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2946,24 +2914,24 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_25013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L68" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C69" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2973,24 +2941,24 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78028_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L69" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C70" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -3000,24 +2968,24 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78028_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78029_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L70" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C71" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -3027,24 +2995,24 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40316_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40335_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L71" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C72" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3054,24 +3022,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_78029_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60435_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L72" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C73" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3081,24 +3049,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_40335_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L73" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3108,24 +3076,24 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_60435_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L74" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
       <c r="C75" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3135,24 +3103,24 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51443_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L75" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C76" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3162,24 +3130,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L76" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C77" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3189,24 +3157,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L77" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C78" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3216,24 +3184,24 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L78" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C79" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3243,24 +3211,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L79" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3270,24 +3238,24 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51461_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L80" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3297,24 +3265,24 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L81" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C82" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3324,24 +3292,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41679_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L82" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C83" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3351,24 +3319,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L83" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C84" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3378,24 +3346,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51461_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51915_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L84" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C85" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3405,24 +3373,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L85" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>114</v>
+        <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3432,24 +3400,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L86" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C87" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3459,24 +3427,24 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61331_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L87" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>116</v>
+        <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3486,24 +3454,24 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51915_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L88" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>117</v>
+        <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3513,24 +3481,24 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L89" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3540,24 +3508,24 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L90" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>118</v>
+        <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3567,24 +3535,24 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L91" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3594,24 +3562,24 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L92" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3621,24 +3589,24 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L93" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3648,24 +3616,24 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L94" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3675,24 +3643,24 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L95" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>43</v>
+        <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3702,24 +3670,24 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61305_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L96" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C97" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D97" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3729,24 +3697,24 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L97" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C98" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D98" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3756,24 +3724,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L98" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C99" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3783,24 +3751,24 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L99" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>119</v>
+        <v>48</v>
       </c>
       <c r="C100" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D100" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3810,24 +3778,24 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L100" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C101" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3837,24 +3805,24 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_61309_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L101" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D102" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3864,24 +3832,24 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L102" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>48</v>
+        <v>114</v>
       </c>
       <c r="C103" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3891,24 +3859,24 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L103" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="104" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>49</v>
+        <v>115</v>
       </c>
       <c r="C104" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D104" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E104">
         <v>1</v>
@@ -3918,148 +3886,13 @@
       </c>
       <c r="G104" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20417_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K104" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="L104" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="105" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
-        <v>50</v>
-      </c>
-      <c r="C105" t="s">
-        <v>53</v>
-      </c>
-      <c r="D105" t="s">
-        <v>122</v>
-      </c>
-      <c r="E105">
-        <v>1</v>
-      </c>
-      <c r="F105">
-        <v>1</v>
-      </c>
-      <c r="G105" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41608_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K105" t="s">
-        <v>56</v>
-      </c>
-      <c r="L105" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="106" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B106" t="s">
-        <v>51</v>
-      </c>
-      <c r="C106" t="s">
-        <v>53</v>
-      </c>
-      <c r="D106" t="s">
-        <v>122</v>
-      </c>
-      <c r="E106">
-        <v>1</v>
-      </c>
-      <c r="F106">
-        <v>1</v>
-      </c>
-      <c r="G106" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41602_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K106" t="s">
-        <v>56</v>
-      </c>
-      <c r="L106" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="107" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B107" t="s">
-        <v>52</v>
-      </c>
-      <c r="C107" t="s">
-        <v>53</v>
-      </c>
-      <c r="D107" t="s">
-        <v>122</v>
-      </c>
-      <c r="E107">
-        <v>1</v>
-      </c>
-      <c r="F107">
-        <v>1</v>
-      </c>
-      <c r="G107" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41613_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K107" t="s">
-        <v>56</v>
-      </c>
-      <c r="L107" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="108" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B108" t="s">
-        <v>120</v>
-      </c>
-      <c r="C108" t="s">
-        <v>53</v>
-      </c>
-      <c r="D108" t="s">
-        <v>122</v>
-      </c>
-      <c r="E108">
-        <v>1</v>
-      </c>
-      <c r="F108">
-        <v>1</v>
-      </c>
-      <c r="G108" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_41618_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K108" t="s">
-        <v>56</v>
-      </c>
-      <c r="L108" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="109" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B109" t="s">
-        <v>121</v>
-      </c>
-      <c r="C109" t="s">
-        <v>53</v>
-      </c>
-      <c r="D109" t="s">
-        <v>122</v>
-      </c>
-      <c r="E109">
-        <v>1</v>
-      </c>
-      <c r="F109">
-        <v>1</v>
-      </c>
-      <c r="G109" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201804_20417_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K109" t="s">
-        <v>56</v>
-      </c>
-      <c r="L109" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Business Reporting\ZDEV\BR_Scripts\BRPoSh\BR_Mailer\J040_COM_EST\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\BR\zDev\BR_Scripts\BRPoSh\BR_Mailer\J040_COM_EST\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="527" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="218">
   <si>
     <t>msg</t>
   </si>
@@ -180,9 +180,6 @@
     <t>Blank</t>
   </si>
   <si>
-    <t>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm</t>
-  </si>
-  <si>
     <t>Steve.Bizri@henryschein.ca</t>
   </si>
   <si>
@@ -243,9 +240,6 @@
     <t>Mike.Thomson@henryschein.ca</t>
   </si>
   <si>
-    <t>Wayne.Sakowsky@henryschein.ca</t>
-  </si>
-  <si>
     <t>Dino.Lisi@henryschein.ca</t>
   </si>
   <si>
@@ -360,9 +354,6 @@
     <t>Michael.Johnston@henryschein.ca</t>
   </si>
   <si>
-    <t>Dave.Lucas@henryschein.ca</t>
-  </si>
-  <si>
     <t>James.Fyles@henryschein.ca</t>
   </si>
   <si>
@@ -372,320 +363,323 @@
     <t>Nathan.Morrison@henryschein.ca</t>
   </si>
   <si>
-    <t>EST Commission Summary for May 2018</t>
-  </si>
-  <si>
-    <t>201805_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_30604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_25013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78028_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_78029_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_40335_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_60435_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51461_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51915_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_61305_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201805_20417_ESTCommissionStatement.pdf</t>
+    <t>Ciro.Mantilla@henryschein.ca</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for June 2018</t>
+  </si>
+  <si>
+    <t>201806_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78003_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_25013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51915_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201806_20417_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>S:\BR\Utilities\Email Master Send\ETU_EST_Comm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -696,14 +690,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -746,19 +732,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
+  <cellStyles count="2">
     <cellStyle name="Input" xfId="1" builtinId="20"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -1039,7 +1022,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N104"/>
+  <dimension ref="A1:N103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1098,14 +1081,14 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
         <v>11</v>
       </c>
       <c r="C2" t="s">
         <v>51</v>
       </c>
       <c r="D2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1115,25 +1098,25 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" t="s">
         <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1143,13 +1126,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1161,35 +1144,35 @@
         <v>51</v>
       </c>
       <c r="D4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51423_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K4" t="s">
+        <v>217</v>
+      </c>
+      <c r="L4" t="s">
         <v>117</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51423_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K4" t="s">
-        <v>53</v>
-      </c>
-      <c r="L4" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>51</v>
       </c>
       <c r="D5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1199,13 +1182,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L5" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1217,7 +1200,7 @@
         <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1227,13 +1210,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1245,7 +1228,7 @@
         <v>51</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1255,13 +1238,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L7" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1273,7 +1256,7 @@
         <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1283,25 +1266,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L8" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C9" t="s">
         <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1311,13 +1294,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L9" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1329,7 +1312,7 @@
         <v>51</v>
       </c>
       <c r="D10" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1339,13 +1322,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1357,7 +1340,7 @@
         <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1367,13 +1350,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L11" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1385,7 +1368,7 @@
         <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1395,25 +1378,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" t="s">
         <v>51</v>
       </c>
       <c r="D13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1423,13 +1406,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1441,7 +1424,7 @@
         <v>51</v>
       </c>
       <c r="D14" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1451,25 +1434,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L14" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" t="s">
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1479,13 +1462,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L15" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1497,7 +1480,7 @@
         <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1507,13 +1490,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1525,7 +1508,7 @@
         <v>51</v>
       </c>
       <c r="D17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1535,13 +1518,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1553,7 +1536,7 @@
         <v>51</v>
       </c>
       <c r="D18" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1563,13 +1546,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L18" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1581,7 +1564,7 @@
         <v>51</v>
       </c>
       <c r="D19" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1591,13 +1574,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L19" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1608,7 +1591,7 @@
         <v>51</v>
       </c>
       <c r="D20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1618,24 +1601,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" t="s">
         <v>51</v>
       </c>
       <c r="D21" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1645,24 +1628,24 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L21" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C22" t="s">
         <v>51</v>
       </c>
       <c r="D22" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1672,13 +1655,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L22" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,7 +1672,7 @@
         <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1699,24 +1682,24 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L23" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C24" t="s">
         <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1726,13 +1709,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L24" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,7 +1726,7 @@
         <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1753,24 +1736,24 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
         <v>51</v>
       </c>
       <c r="D26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1780,13 +1763,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1797,7 +1780,7 @@
         <v>51</v>
       </c>
       <c r="D27" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1807,24 +1790,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C28" t="s">
         <v>51</v>
       </c>
       <c r="D28" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1834,13 +1817,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,7 +1834,7 @@
         <v>51</v>
       </c>
       <c r="D29" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1861,24 +1844,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L29" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
         <v>51</v>
       </c>
       <c r="D30" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1888,24 +1871,24 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L30" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
         <v>51</v>
       </c>
       <c r="D31" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1915,24 +1898,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L31" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
         <v>51</v>
       </c>
       <c r="D32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1942,24 +1925,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
         <v>51</v>
       </c>
       <c r="D33" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1969,13 +1952,13 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L33" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1986,7 +1969,7 @@
         <v>51</v>
       </c>
       <c r="D34" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1996,24 +1979,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L34" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>68</v>
+        <v>114</v>
       </c>
       <c r="C35" t="s">
         <v>51</v>
       </c>
       <c r="D35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2023,24 +2006,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L35" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C36" t="s">
         <v>51</v>
       </c>
       <c r="D36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2050,24 +2033,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
         <v>51</v>
       </c>
       <c r="D37" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2077,24 +2060,24 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L37" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
         <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2104,24 +2087,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L38" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>71</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>51</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2131,24 +2114,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78003_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L39" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2158,24 +2141,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L40" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>51</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2185,24 +2168,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L41" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" t="s">
         <v>51</v>
       </c>
       <c r="D42" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2212,24 +2195,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L42" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="C43" t="s">
         <v>51</v>
       </c>
       <c r="D43" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2239,24 +2222,24 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L43" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C44" t="s">
         <v>51</v>
       </c>
       <c r="D44" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2266,24 +2249,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L44" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>74</v>
+        <v>33</v>
       </c>
       <c r="C45" t="s">
         <v>51</v>
       </c>
       <c r="D45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2293,13 +2276,13 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30604_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L45" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2310,7 +2293,7 @@
         <v>51</v>
       </c>
       <c r="D46" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2320,13 +2303,13 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L46" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -2337,7 +2320,7 @@
         <v>51</v>
       </c>
       <c r="D47" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2347,24 +2330,24 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L47" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C48" t="s">
         <v>51</v>
       </c>
       <c r="D48" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2374,24 +2357,24 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L48" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C49" t="s">
         <v>51</v>
       </c>
       <c r="D49" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2401,24 +2384,24 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C50" t="s">
         <v>51</v>
       </c>
       <c r="D50" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2428,24 +2411,24 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L50" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C51" t="s">
         <v>51</v>
       </c>
       <c r="D51" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2455,24 +2438,24 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L51" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C52" t="s">
         <v>51</v>
       </c>
       <c r="D52" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2482,24 +2465,24 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L52" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C53" t="s">
         <v>51</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2509,24 +2492,24 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L53" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C54" t="s">
         <v>51</v>
       </c>
       <c r="D54" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2536,24 +2519,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L54" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C55" t="s">
         <v>51</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2563,24 +2546,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C56" t="s">
         <v>51</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2590,24 +2573,24 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L56" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C57" t="s">
         <v>51</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2617,24 +2600,24 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L57" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C58" t="s">
         <v>51</v>
       </c>
       <c r="D58" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2644,24 +2627,24 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L58" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C59" t="s">
         <v>51</v>
       </c>
       <c r="D59" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2671,24 +2654,24 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L59" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C60" t="s">
         <v>51</v>
       </c>
       <c r="D60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2698,24 +2681,24 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L60" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C61" t="s">
         <v>51</v>
       </c>
       <c r="D61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2725,24 +2708,24 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L61" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C62" t="s">
         <v>51</v>
       </c>
       <c r="D62" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2752,24 +2735,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L62" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C63" t="s">
         <v>51</v>
       </c>
       <c r="D63" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2779,24 +2762,24 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L63" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C64" t="s">
         <v>51</v>
       </c>
       <c r="D64" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2806,24 +2789,24 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L64" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C65" t="s">
         <v>51</v>
       </c>
       <c r="D65" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2833,24 +2816,24 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L65" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C66" t="s">
         <v>51</v>
       </c>
       <c r="D66" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2860,24 +2843,24 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L66" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C67" t="s">
         <v>51</v>
       </c>
       <c r="D67" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2886,25 +2869,25 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G104" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40334_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G67:G103" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L67" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C68" t="s">
         <v>51</v>
       </c>
       <c r="D68" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2914,24 +2897,24 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_25013_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_25013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L68" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C69" t="s">
         <v>51</v>
       </c>
       <c r="D69" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2941,24 +2924,24 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78028_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78028_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L69" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C70" t="s">
         <v>51</v>
       </c>
       <c r="D70" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2968,24 +2951,24 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_78029_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78029_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L70" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C71" t="s">
         <v>51</v>
       </c>
       <c r="D71" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2995,24 +2978,24 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_40335_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40335_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L71" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C72" t="s">
         <v>51</v>
       </c>
       <c r="D72" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3022,24 +3005,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_60435_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60435_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L72" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C73" t="s">
         <v>51</v>
       </c>
       <c r="D73" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3049,24 +3032,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L73" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C74" t="s">
         <v>51</v>
       </c>
       <c r="D74" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3076,24 +3059,24 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L74" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C75" t="s">
         <v>51</v>
       </c>
       <c r="D75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3103,24 +3086,24 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L75" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C76" t="s">
         <v>51</v>
       </c>
       <c r="D76" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3130,24 +3113,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L76" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C77" t="s">
         <v>51</v>
       </c>
       <c r="D77" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3157,24 +3140,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L77" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C78" t="s">
         <v>51</v>
       </c>
       <c r="D78" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3184,24 +3167,24 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L78" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C79" t="s">
         <v>51</v>
       </c>
       <c r="D79" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3211,24 +3194,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" t="s">
         <v>51</v>
       </c>
       <c r="D80" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3238,24 +3221,24 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51461_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51461_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L80" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" t="s">
         <v>51</v>
       </c>
       <c r="D81" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3265,24 +3248,24 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L81" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C82" t="s">
         <v>51</v>
       </c>
       <c r="D82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3292,24 +3275,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L82" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C83" t="s">
         <v>51</v>
       </c>
       <c r="D83" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3319,24 +3302,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L83" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C84" t="s">
         <v>51</v>
       </c>
       <c r="D84" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3346,24 +3329,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51915_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51915_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L84" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C85" t="s">
         <v>51</v>
       </c>
       <c r="D85" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3373,13 +3356,13 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L85" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
@@ -3390,7 +3373,7 @@
         <v>51</v>
       </c>
       <c r="D86" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3400,24 +3383,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L86" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C87" t="s">
         <v>51</v>
       </c>
       <c r="D87" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3427,13 +3410,13 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -3444,7 +3427,7 @@
         <v>51</v>
       </c>
       <c r="D88" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3454,13 +3437,13 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L88" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -3471,7 +3454,7 @@
         <v>51</v>
       </c>
       <c r="D89" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3481,13 +3464,13 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L89" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -3498,7 +3481,7 @@
         <v>51</v>
       </c>
       <c r="D90" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3508,13 +3491,13 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L90" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -3525,7 +3508,7 @@
         <v>51</v>
       </c>
       <c r="D91" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3535,13 +3518,13 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L91" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -3552,7 +3535,7 @@
         <v>51</v>
       </c>
       <c r="D92" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3562,13 +3545,13 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L92" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -3579,7 +3562,7 @@
         <v>51</v>
       </c>
       <c r="D93" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3589,13 +3572,13 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L93" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -3606,7 +3589,7 @@
         <v>51</v>
       </c>
       <c r="D94" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3616,13 +3599,13 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L94" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -3633,7 +3616,7 @@
         <v>51</v>
       </c>
       <c r="D95" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3643,24 +3626,24 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L95" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>113</v>
+        <v>45</v>
       </c>
       <c r="C96" t="s">
         <v>51</v>
       </c>
       <c r="D96" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3670,24 +3653,24 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_61305_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L96" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C97" t="s">
         <v>51</v>
       </c>
       <c r="D97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3697,24 +3680,24 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C98" t="s">
         <v>51</v>
       </c>
       <c r="D98" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3724,24 +3707,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L98" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C99" t="s">
         <v>51</v>
       </c>
       <c r="D99" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3751,24 +3734,24 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L99" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C100" t="s">
         <v>51</v>
       </c>
       <c r="D100" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3778,24 +3761,24 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L100" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C101" t="s">
         <v>51</v>
       </c>
       <c r="D101" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3805,24 +3788,24 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L101" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="102" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>50</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s">
         <v>51</v>
       </c>
       <c r="D102" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -3832,24 +3815,24 @@
       </c>
       <c r="G102" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K102" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L102" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="103" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C103" t="s">
         <v>51</v>
       </c>
       <c r="D103" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E103">
         <v>1</v>
@@ -3859,40 +3842,13 @@
       </c>
       <c r="G103" t="str">
         <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_41618_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20417_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K103" t="s">
-        <v>53</v>
+        <v>217</v>
       </c>
       <c r="L103" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="104" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B104" t="s">
-        <v>115</v>
-      </c>
-      <c r="C104" t="s">
-        <v>51</v>
-      </c>
-      <c r="D104" t="s">
-        <v>117</v>
-      </c>
-      <c r="E104">
-        <v>1</v>
-      </c>
-      <c r="F104">
-        <v>1</v>
-      </c>
-      <c r="G104" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\Business Reporting\Utilities\Email Master Send\ETU_EST_Comm\201805_20417_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K104" t="s">
-        <v>53</v>
-      </c>
-      <c r="L104" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="214">
   <si>
     <t>msg</t>
   </si>
@@ -111,9 +111,6 @@
     <t>Andre.Roy@henryschein.ca</t>
   </si>
   <si>
-    <t>Ian.Shypanski@henryschein.ca</t>
-  </si>
-  <si>
     <t>Ray.Gauvin@henryschein.ca</t>
   </si>
   <si>
@@ -150,9 +147,6 @@
     <t>Mario.Gariepy@henryschein.ca</t>
   </si>
   <si>
-    <t>Ivan.Sonicki@henryschein.ca</t>
-  </si>
-  <si>
     <t>William.Brisson@henryschein.ca</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
     <t>Jason.Kirkbride@henryschein.ca</t>
   </si>
   <si>
-    <t>Jay.Abaya@henryschein.ca</t>
-  </si>
-  <si>
     <t>Robert.Cluett@henryschein.ca</t>
   </si>
   <si>
@@ -366,313 +357,310 @@
     <t>Ciro.Mantilla@henryschein.ca</t>
   </si>
   <si>
-    <t>EST Commission Summary for June 2018</t>
-  </si>
-  <si>
-    <t>201806_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78003_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_25013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78028_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_78029_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_40335_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_60435_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51461_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_61331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51915_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201806_20417_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
     <t>S:\BR\Utilities\Email Master Send\ETU_EST_Comm</t>
+  </si>
+  <si>
+    <t>Geoff.Hamelin@henryschein.ca</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for July 2018</t>
+  </si>
+  <si>
+    <t>201807_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51438_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40326_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_25013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40316_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201807_20417_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1022,9 +1010,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N103"/>
+  <dimension ref="A1:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L2" sqref="L2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1068,7 +1058,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="K1" t="s">
         <v>10</v>
@@ -1085,10 +1075,10 @@
         <v>11</v>
       </c>
       <c r="C2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1098,25 +1088,25 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1126,13 +1116,13 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
@@ -1141,10 +1131,10 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1154,25 +1144,25 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1182,13 +1172,13 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L5" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1197,10 +1187,10 @@
         <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1210,13 +1200,13 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1225,10 +1215,10 @@
         <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1238,13 +1228,13 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L7" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1253,10 +1243,10 @@
         <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1266,25 +1256,25 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1294,13 +1284,13 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1309,10 +1299,10 @@
         <v>16</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1322,13 +1312,13 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1337,10 +1327,10 @@
         <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1350,13 +1340,13 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1365,10 +1355,10 @@
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1378,25 +1368,25 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C13" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1406,13 +1396,13 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1421,10 +1411,10 @@
         <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1434,25 +1424,25 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1462,13 +1452,13 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1477,10 +1467,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1490,13 +1480,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1505,10 +1495,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1518,13 +1508,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L17" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1533,10 +1523,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1546,13 +1536,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L18" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1561,10 +1551,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1574,13 +1564,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1588,10 +1578,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1601,24 +1591,24 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1628,24 +1618,24 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1655,13 +1645,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L22" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1669,10 +1659,10 @@
         <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1682,24 +1672,24 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L23" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1709,13 +1699,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L24" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1723,10 +1713,10 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1736,24 +1726,24 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1763,13 +1753,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1777,10 +1767,10 @@
         <v>27</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1790,24 +1780,24 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C28" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1817,13 +1807,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1831,10 +1821,10 @@
         <v>28</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1844,24 +1834,24 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L29" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C30" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1871,24 +1861,24 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L30" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1898,24 +1888,24 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1925,24 +1915,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51438_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C33" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1952,13 +1942,13 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
@@ -1966,10 +1956,10 @@
         <v>29</v>
       </c>
       <c r="C34" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1979,24 +1969,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L34" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C35" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -2006,24 +1996,24 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2033,24 +2023,24 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2060,24 +2050,24 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L37" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2087,24 +2077,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L38" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C39" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2114,24 +2104,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78003_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L39" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="C40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2141,24 +2131,24 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2168,24 +2158,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L41" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2195,24 +2185,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L42" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="C43" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2222,13 +2212,13 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L43" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
@@ -2236,10 +2226,10 @@
         <v>32</v>
       </c>
       <c r="C44" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2249,13 +2239,13 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L44" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
@@ -2263,10 +2253,10 @@
         <v>33</v>
       </c>
       <c r="C45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2276,13 +2266,13 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
@@ -2290,10 +2280,10 @@
         <v>34</v>
       </c>
       <c r="C46" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2303,24 +2293,24 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L46" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>35</v>
+        <v>71</v>
       </c>
       <c r="C47" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2330,24 +2320,24 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L47" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C48" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2357,24 +2347,24 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C49" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2384,24 +2374,24 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L49" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C50" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2411,24 +2401,24 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L50" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C51" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2438,24 +2428,24 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L51" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C52" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2465,24 +2455,24 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L52" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C53" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2492,24 +2482,24 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C54" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2519,24 +2509,24 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L54" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2546,24 +2536,24 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L55" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2573,24 +2563,24 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40326_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L56" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2600,24 +2590,24 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C58" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2627,24 +2617,24 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C59" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2654,24 +2644,24 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C60" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2681,24 +2671,24 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C61" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2708,24 +2698,24 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L61" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C62" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2735,24 +2725,24 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L62" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C63" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2762,24 +2752,24 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L63" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C64" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2789,24 +2779,24 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L64" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C65" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2816,24 +2806,24 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L65" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2843,24 +2833,24 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L66" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2869,25 +2859,25 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G103" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40334_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G67:G101" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_25013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L67" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C68" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2897,24 +2887,24 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_25013_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78028_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L68" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>93</v>
+        <v>113</v>
       </c>
       <c r="C69" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2924,24 +2914,24 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78028_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40316_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L69" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C70" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2951,24 +2941,24 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_78029_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78029_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L70" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C71" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2978,24 +2968,24 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_40335_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40335_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L71" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C72" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -3005,24 +2995,24 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_60435_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60435_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L72" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C73" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3032,24 +3022,24 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L73" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C74" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3059,24 +3049,24 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L74" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C75" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3086,24 +3076,24 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L75" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C76" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3113,24 +3103,24 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L76" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C77" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3140,24 +3130,24 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L77" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C78" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3167,24 +3157,24 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L78" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C79" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3194,24 +3184,24 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L79" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C80" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3221,24 +3211,24 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51461_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51461_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L80" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C81" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3248,24 +3238,24 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L81" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C82" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3275,24 +3265,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L82" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C83" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3302,24 +3292,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L83" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C84" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3329,24 +3319,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51915_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L84" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="C85" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3356,24 +3346,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L85" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="C86" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3383,24 +3373,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L86" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>110</v>
+        <v>36</v>
       </c>
       <c r="C87" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3410,13 +3400,13 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L87" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
@@ -3424,10 +3414,10 @@
         <v>37</v>
       </c>
       <c r="C88" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3437,13 +3427,13 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L88" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
@@ -3451,10 +3441,10 @@
         <v>38</v>
       </c>
       <c r="C89" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3464,13 +3454,13 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L89" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
@@ -3478,10 +3468,10 @@
         <v>39</v>
       </c>
       <c r="C90" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3491,13 +3481,13 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L90" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
@@ -3505,10 +3495,10 @@
         <v>40</v>
       </c>
       <c r="C91" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3518,13 +3508,13 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L91" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
@@ -3532,10 +3522,10 @@
         <v>41</v>
       </c>
       <c r="C92" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3545,13 +3535,13 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L92" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
@@ -3559,10 +3549,10 @@
         <v>42</v>
       </c>
       <c r="C93" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3572,13 +3562,13 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L93" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
@@ -3586,10 +3576,10 @@
         <v>43</v>
       </c>
       <c r="C94" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3599,13 +3589,13 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L94" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
@@ -3613,10 +3603,10 @@
         <v>44</v>
       </c>
       <c r="C95" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3626,13 +3616,13 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L95" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
@@ -3640,10 +3630,10 @@
         <v>45</v>
       </c>
       <c r="C96" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3653,13 +3643,13 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L96" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
@@ -3667,10 +3657,10 @@
         <v>46</v>
       </c>
       <c r="C97" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D97" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3680,13 +3670,13 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L97" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
@@ -3694,10 +3684,10 @@
         <v>47</v>
       </c>
       <c r="C98" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3707,13 +3697,13 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L98" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
@@ -3721,10 +3711,10 @@
         <v>48</v>
       </c>
       <c r="C99" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3734,24 +3724,24 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L99" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="100" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D100" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -3761,24 +3751,24 @@
       </c>
       <c r="G100" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K100" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L100" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="101" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>50</v>
+        <v>109</v>
       </c>
       <c r="C101" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D101" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -3788,67 +3778,13 @@
       </c>
       <c r="G101" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20417_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K101" t="s">
-        <v>217</v>
+        <v>112</v>
       </c>
       <c r="L101" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="102" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B102" t="s">
-        <v>111</v>
-      </c>
-      <c r="C102" t="s">
-        <v>51</v>
-      </c>
-      <c r="D102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E102">
-        <v>1</v>
-      </c>
-      <c r="F102">
-        <v>1</v>
-      </c>
-      <c r="G102" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_41618_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K102" t="s">
-        <v>217</v>
-      </c>
-      <c r="L102" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="103" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B103" t="s">
-        <v>112</v>
-      </c>
-      <c r="C103" t="s">
-        <v>51</v>
-      </c>
-      <c r="D103" t="s">
-        <v>115</v>
-      </c>
-      <c r="E103">
-        <v>1</v>
-      </c>
-      <c r="F103">
-        <v>1</v>
-      </c>
-      <c r="G103" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201806_20417_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K103" t="s">
-        <v>217</v>
-      </c>
-      <c r="L103" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="502" uniqueCount="210">
   <si>
     <t>msg</t>
   </si>
@@ -210,9 +210,6 @@
     <t>Eric.Vigneault@henryschein.ca</t>
   </si>
   <si>
-    <t>Xavier.Bourret@henryschein.ca</t>
-  </si>
-  <si>
     <t>Karl.Lambert@henryschein.ca</t>
   </si>
   <si>
@@ -261,9 +258,6 @@
     <t>Carl.Donohue@henryschein.ca</t>
   </si>
   <si>
-    <t>Charles.Gilbert@henryschein.ca</t>
-  </si>
-  <si>
     <t>Rick.Stamm@henryschein.ca</t>
   </si>
   <si>
@@ -363,304 +357,298 @@
     <t>Geoff.Hamelin@henryschein.ca</t>
   </si>
   <si>
-    <t>EST Commission Summary for July 2018</t>
-  </si>
-  <si>
-    <t>201807_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51438_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40326_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_25013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78028_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40316_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_78029_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_40335_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_60435_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51461_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_61331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201807_20417_ESTCommissionStatement.pdf</t>
+    <t>EST Commission Summary for August 2018</t>
+  </si>
+  <si>
+    <t>201808_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41816_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_25013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40316_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201808_20417_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1010,11 +998,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:N101"/>
+  <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1025,11 +1011,11 @@
     <col min="8" max="8" width="10.5703125" customWidth="1"/>
     <col min="9" max="9" width="3.28515625" customWidth="1"/>
     <col min="11" max="11" width="6.140625" customWidth="1"/>
-    <col min="12" max="12" width="70.140625" customWidth="1"/>
+    <col min="12" max="12" width="43.85546875" customWidth="1"/>
     <col min="13" max="13" width="33.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -1066,10 +1052,8 @@
       <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1"/>
-      <c r="N1" s="1"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" t="s">
         <v>11</v>
@@ -1078,7 +1062,7 @@
         <v>49</v>
       </c>
       <c r="D2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1088,16 +1072,16 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" t="s">
         <v>51</v>
@@ -1106,7 +1090,7 @@
         <v>49</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1116,16 +1100,16 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" t="s">
         <v>12</v>
@@ -1134,26 +1118,26 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51423_ESTCommissionStatement.pdf</v>
+      </c>
+      <c r="K4" t="s">
+        <v>110</v>
+      </c>
+      <c r="L4" t="s">
         <v>114</v>
       </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="str">
-        <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51423_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K4" t="s">
-        <v>112</v>
-      </c>
-      <c r="L4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" t="s">
         <v>52</v>
@@ -1162,7 +1146,7 @@
         <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1172,16 +1156,16 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L5" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" t="s">
         <v>13</v>
@@ -1190,7 +1174,7 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1200,16 +1184,16 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L6" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" t="s">
         <v>14</v>
@@ -1218,7 +1202,7 @@
         <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1228,16 +1212,16 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" t="s">
         <v>15</v>
@@ -1246,7 +1230,7 @@
         <v>49</v>
       </c>
       <c r="D8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1256,16 +1240,16 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" t="s">
         <v>53</v>
@@ -1274,7 +1258,7 @@
         <v>49</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1284,16 +1268,16 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L9" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" t="s">
         <v>16</v>
@@ -1302,7 +1286,7 @@
         <v>49</v>
       </c>
       <c r="D10" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -1312,16 +1296,16 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" t="s">
         <v>17</v>
@@ -1330,7 +1314,7 @@
         <v>49</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -1340,16 +1324,16 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L11" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" t="s">
         <v>18</v>
@@ -1358,7 +1342,7 @@
         <v>49</v>
       </c>
       <c r="D12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1368,16 +1352,16 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L12" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" t="s">
         <v>54</v>
@@ -1386,7 +1370,7 @@
         <v>49</v>
       </c>
       <c r="D13" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1396,16 +1380,16 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L13" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" t="s">
         <v>19</v>
@@ -1414,7 +1398,7 @@
         <v>49</v>
       </c>
       <c r="D14" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -1424,16 +1408,16 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L14" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" t="s">
         <v>55</v>
@@ -1442,7 +1426,7 @@
         <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -1452,16 +1436,16 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" t="s">
         <v>20</v>
@@ -1470,7 +1454,7 @@
         <v>49</v>
       </c>
       <c r="D16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1480,13 +1464,13 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.25">
@@ -1498,7 +1482,7 @@
         <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -1508,13 +1492,13 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.25">
@@ -1526,7 +1510,7 @@
         <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1536,13 +1520,13 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L18" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.25">
@@ -1554,7 +1538,7 @@
         <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1564,13 +1548,13 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L19" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.25">
@@ -1581,7 +1565,7 @@
         <v>49</v>
       </c>
       <c r="D20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -1591,13 +1575,13 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.25">
@@ -1608,7 +1592,7 @@
         <v>49</v>
       </c>
       <c r="D21" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1618,13 +1602,13 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L21" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.25">
@@ -1635,7 +1619,7 @@
         <v>49</v>
       </c>
       <c r="D22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1645,13 +1629,13 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L22" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.25">
@@ -1662,7 +1646,7 @@
         <v>49</v>
       </c>
       <c r="D23" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -1672,13 +1656,13 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L23" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.25">
@@ -1689,7 +1673,7 @@
         <v>49</v>
       </c>
       <c r="D24" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -1699,13 +1683,13 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L24" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.25">
@@ -1716,7 +1700,7 @@
         <v>49</v>
       </c>
       <c r="D25" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E25">
         <v>1</v>
@@ -1726,13 +1710,13 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L25" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.25">
@@ -1743,7 +1727,7 @@
         <v>49</v>
       </c>
       <c r="D26" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E26">
         <v>1</v>
@@ -1753,13 +1737,13 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.25">
@@ -1770,7 +1754,7 @@
         <v>49</v>
       </c>
       <c r="D27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -1780,13 +1764,13 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
@@ -1797,7 +1781,7 @@
         <v>49</v>
       </c>
       <c r="D28" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -1807,13 +1791,13 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
@@ -1824,7 +1808,7 @@
         <v>49</v>
       </c>
       <c r="D29" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -1834,13 +1818,13 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L29" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -1851,7 +1835,7 @@
         <v>49</v>
       </c>
       <c r="D30" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E30">
         <v>1</v>
@@ -1861,13 +1845,13 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L30" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
@@ -1878,7 +1862,7 @@
         <v>49</v>
       </c>
       <c r="D31" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -1888,13 +1872,13 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41816_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L31" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
@@ -1905,7 +1889,7 @@
         <v>49</v>
       </c>
       <c r="D32" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -1915,24 +1899,24 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51438_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L32" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>64</v>
+        <v>29</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
       </c>
       <c r="D33" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -1942,24 +1926,24 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L33" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>29</v>
+        <v>109</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
       </c>
       <c r="D34" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -1969,24 +1953,24 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L34" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>111</v>
+        <v>64</v>
       </c>
       <c r="C35" t="s">
         <v>49</v>
       </c>
       <c r="D35" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E35">
         <v>1</v>
@@ -1996,13 +1980,13 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="36" spans="2:12" x14ac:dyDescent="0.25">
@@ -2013,7 +1997,7 @@
         <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E36">
         <v>1</v>
@@ -2023,13 +2007,13 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L36" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="2:12" x14ac:dyDescent="0.25">
@@ -2040,7 +2024,7 @@
         <v>49</v>
       </c>
       <c r="D37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2050,13 +2034,13 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L37" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
@@ -2067,7 +2051,7 @@
         <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E38">
         <v>1</v>
@@ -2077,24 +2061,24 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
       </c>
       <c r="D39" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E39">
         <v>1</v>
@@ -2104,24 +2088,24 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L39" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="40" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
       <c r="C40" t="s">
         <v>49</v>
       </c>
       <c r="D40" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E40">
         <v>1</v>
@@ -2131,13 +2115,13 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L40" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
@@ -2148,7 +2132,7 @@
         <v>49</v>
       </c>
       <c r="D41" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -2158,24 +2142,24 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L41" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
       </c>
       <c r="D42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -2185,24 +2169,24 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L42" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
       </c>
       <c r="D43" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2212,24 +2196,24 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L43" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C44" t="s">
         <v>49</v>
       </c>
       <c r="D44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E44">
         <v>1</v>
@@ -2239,24 +2223,24 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C45" t="s">
         <v>49</v>
       </c>
       <c r="D45" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E45">
         <v>1</v>
@@ -2266,24 +2250,24 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L45" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E46">
         <v>1</v>
@@ -2293,13 +2277,13 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L46" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
@@ -2310,7 +2294,7 @@
         <v>49</v>
       </c>
       <c r="D47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E47">
         <v>1</v>
@@ -2320,13 +2304,13 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L47" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
@@ -2337,7 +2321,7 @@
         <v>49</v>
       </c>
       <c r="D48" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48">
         <v>1</v>
@@ -2347,13 +2331,13 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L48" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
@@ -2364,7 +2348,7 @@
         <v>49</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E49">
         <v>1</v>
@@ -2374,13 +2358,13 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L49" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
@@ -2391,7 +2375,7 @@
         <v>49</v>
       </c>
       <c r="D50" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -2401,13 +2385,13 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L50" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
@@ -2418,7 +2402,7 @@
         <v>49</v>
       </c>
       <c r="D51" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E51">
         <v>1</v>
@@ -2428,13 +2412,13 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L51" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
@@ -2445,7 +2429,7 @@
         <v>49</v>
       </c>
       <c r="D52" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E52">
         <v>1</v>
@@ -2455,13 +2439,13 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L52" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
@@ -2472,7 +2456,7 @@
         <v>49</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E53">
         <v>1</v>
@@ -2482,13 +2466,13 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L53" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
@@ -2499,7 +2483,7 @@
         <v>49</v>
       </c>
       <c r="D54" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -2509,13 +2493,13 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L54" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
@@ -2526,7 +2510,7 @@
         <v>49</v>
       </c>
       <c r="D55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E55">
         <v>1</v>
@@ -2536,13 +2520,13 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L55" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
@@ -2553,7 +2537,7 @@
         <v>49</v>
       </c>
       <c r="D56" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E56">
         <v>1</v>
@@ -2563,13 +2547,13 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40326_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L56" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
@@ -2580,7 +2564,7 @@
         <v>49</v>
       </c>
       <c r="D57" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -2590,13 +2574,13 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L57" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
@@ -2607,7 +2591,7 @@
         <v>49</v>
       </c>
       <c r="D58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E58">
         <v>1</v>
@@ -2617,13 +2601,13 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L58" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
@@ -2634,7 +2618,7 @@
         <v>49</v>
       </c>
       <c r="D59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E59">
         <v>1</v>
@@ -2644,13 +2628,13 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L59" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
@@ -2661,7 +2645,7 @@
         <v>49</v>
       </c>
       <c r="D60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E60">
         <v>1</v>
@@ -2671,13 +2655,13 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L60" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
@@ -2688,7 +2672,7 @@
         <v>49</v>
       </c>
       <c r="D61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -2698,13 +2682,13 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L61" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
@@ -2715,7 +2699,7 @@
         <v>49</v>
       </c>
       <c r="D62" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E62">
         <v>1</v>
@@ -2725,13 +2709,13 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L62" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
@@ -2742,7 +2726,7 @@
         <v>49</v>
       </c>
       <c r="D63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63">
         <v>1</v>
@@ -2752,13 +2736,13 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
@@ -2769,7 +2753,7 @@
         <v>49</v>
       </c>
       <c r="D64" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E64">
         <v>1</v>
@@ -2779,24 +2763,24 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
         <v>49</v>
       </c>
       <c r="D65" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -2806,24 +2790,24 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_25013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L65" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C66" t="s">
         <v>49</v>
       </c>
       <c r="D66" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -2833,24 +2817,24 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78028_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L66" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
       </c>
       <c r="D67" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E67">
         <v>1</v>
@@ -2859,25 +2843,25 @@
         <v>1</v>
       </c>
       <c r="G67" t="str">
-        <f t="shared" ref="G67:G101" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_25013_ESTCommissionStatement.pdf</v>
+        <f t="shared" ref="G67:G99" si="1">$K67&amp;"\"&amp;L67</f>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40316_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L67" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C68" t="s">
         <v>49</v>
       </c>
       <c r="D68" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E68">
         <v>1</v>
@@ -2887,24 +2871,24 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78028_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78029_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L68" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>
       </c>
       <c r="D69" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -2914,13 +2898,13 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40316_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40335_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L69" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
@@ -2931,7 +2915,7 @@
         <v>49</v>
       </c>
       <c r="D70" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E70">
         <v>1</v>
@@ -2941,13 +2925,13 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_78029_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60435_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L70" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
@@ -2958,7 +2942,7 @@
         <v>49</v>
       </c>
       <c r="D71" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E71">
         <v>1</v>
@@ -2968,13 +2952,13 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_40335_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L71" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
@@ -2985,7 +2969,7 @@
         <v>49</v>
       </c>
       <c r="D72" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E72">
         <v>1</v>
@@ -2995,13 +2979,13 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_60435_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L72" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
@@ -3012,7 +2996,7 @@
         <v>49</v>
       </c>
       <c r="D73" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3022,13 +3006,13 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L73" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
@@ -3039,7 +3023,7 @@
         <v>49</v>
       </c>
       <c r="D74" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3049,13 +3033,13 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L74" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
@@ -3066,7 +3050,7 @@
         <v>49</v>
       </c>
       <c r="D75" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E75">
         <v>1</v>
@@ -3076,13 +3060,13 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L75" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
@@ -3093,7 +3077,7 @@
         <v>49</v>
       </c>
       <c r="D76" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -3103,13 +3087,13 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L76" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
@@ -3120,7 +3104,7 @@
         <v>49</v>
       </c>
       <c r="D77" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -3130,13 +3114,13 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L77" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
@@ -3147,7 +3131,7 @@
         <v>49</v>
       </c>
       <c r="D78" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -3157,13 +3141,13 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51461_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L78" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
@@ -3174,7 +3158,7 @@
         <v>49</v>
       </c>
       <c r="D79" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E79">
         <v>1</v>
@@ -3184,13 +3168,13 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L79" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
@@ -3201,7 +3185,7 @@
         <v>49</v>
       </c>
       <c r="D80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80">
         <v>1</v>
@@ -3211,13 +3195,13 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51461_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L80" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
@@ -3228,7 +3212,7 @@
         <v>49</v>
       </c>
       <c r="D81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -3238,13 +3222,13 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L81" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
@@ -3255,7 +3239,7 @@
         <v>49</v>
       </c>
       <c r="D82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -3265,24 +3249,24 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L82" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="83" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>105</v>
+        <v>35</v>
       </c>
       <c r="C83" t="s">
         <v>49</v>
       </c>
       <c r="D83" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E83">
         <v>1</v>
@@ -3292,24 +3276,24 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L83" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C84" t="s">
         <v>49</v>
       </c>
       <c r="D84" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -3319,24 +3303,24 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L84" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="85" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C85" t="s">
         <v>49</v>
       </c>
       <c r="D85" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -3346,24 +3330,24 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L85" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="86" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B86" t="s">
-        <v>107</v>
+        <v>37</v>
       </c>
       <c r="C86" t="s">
         <v>49</v>
       </c>
       <c r="D86" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -3373,24 +3357,24 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L86" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="87" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C87" t="s">
         <v>49</v>
       </c>
       <c r="D87" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -3400,24 +3384,24 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L87" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="88" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C88" t="s">
         <v>49</v>
       </c>
       <c r="D88" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -3427,24 +3411,24 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L88" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="89" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C89" t="s">
         <v>49</v>
       </c>
       <c r="D89" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -3454,24 +3438,24 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L89" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C90" t="s">
         <v>49</v>
       </c>
       <c r="D90" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -3481,24 +3465,24 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L90" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="91" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C91" t="s">
         <v>49</v>
       </c>
       <c r="D91" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -3508,24 +3492,24 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L91" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="92" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C92" t="s">
         <v>49</v>
       </c>
       <c r="D92" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -3535,24 +3519,24 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L92" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="93" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C93" t="s">
         <v>49</v>
       </c>
       <c r="D93" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -3562,24 +3546,24 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L93" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="94" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C94" t="s">
         <v>49</v>
       </c>
       <c r="D94" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -3589,24 +3573,24 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L94" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="95" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C95" t="s">
         <v>49</v>
       </c>
       <c r="D95" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -3616,24 +3600,24 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L95" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="96" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C96" t="s">
         <v>49</v>
       </c>
       <c r="D96" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -3643,24 +3627,24 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L96" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="97" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C97" t="s">
         <v>49</v>
       </c>
       <c r="D97" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -3670,24 +3654,24 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L97" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>47</v>
+        <v>106</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
       </c>
       <c r="D98" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -3697,24 +3681,24 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L98" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>48</v>
+        <v>107</v>
       </c>
       <c r="C99" t="s">
         <v>49</v>
       </c>
       <c r="D99" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -3724,67 +3708,13 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20417_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L99" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="100" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>108</v>
-      </c>
-      <c r="C100" t="s">
-        <v>49</v>
-      </c>
-      <c r="D100" t="s">
-        <v>114</v>
-      </c>
-      <c r="E100">
-        <v>1</v>
-      </c>
-      <c r="F100">
-        <v>1</v>
-      </c>
-      <c r="G100" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_41618_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K100" t="s">
-        <v>112</v>
-      </c>
-      <c r="L100" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="101" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B101" t="s">
-        <v>109</v>
-      </c>
-      <c r="C101" t="s">
-        <v>49</v>
-      </c>
-      <c r="D101" t="s">
-        <v>114</v>
-      </c>
-      <c r="E101">
-        <v>1</v>
-      </c>
-      <c r="F101">
-        <v>1</v>
-      </c>
-      <c r="G101" t="str">
-        <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201807_20417_ESTCommissionStatement.pdf</v>
-      </c>
-      <c r="K101" t="s">
-        <v>112</v>
-      </c>
-      <c r="L101" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
+++ b/BR_Mailer/J040_COM_EST/J040_Mailing_List - Excel.xlsx
@@ -207,9 +207,6 @@
     <t>Ian.Walker@henryschein.ca</t>
   </si>
   <si>
-    <t>Eric.Vigneault@henryschein.ca</t>
-  </si>
-  <si>
     <t>Karl.Lambert@henryschein.ca</t>
   </si>
   <si>
@@ -357,298 +354,301 @@
     <t>Geoff.Hamelin@henryschein.ca</t>
   </si>
   <si>
-    <t>EST Commission Summary for August 2018</t>
-  </si>
-  <si>
-    <t>201808_61313_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51423_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90203_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41620_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41647_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41810_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41646_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51422_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41803_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41801_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90201_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41632_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41614_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41644_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41802_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41643_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41607_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90209_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51421_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41626_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51908_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_61311_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_61308_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_20410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51909_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_61320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_50605_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41657_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41816_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41818_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51441_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41819_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60410_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60406_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60405_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40307_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_25006_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78005_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78004_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_25010_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78012_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_20413_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40319_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40320_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60426_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40322_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_30613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_20414_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78018_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_30615_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_20415_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40328_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78023_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60431_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60432_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_30617_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78024_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40332_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40334_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_25013_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78028_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40316_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_78029_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_40335_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_60435_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41671_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41674_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41678_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90215_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90219_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41682_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_61327_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51461_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_70902_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41693_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_61331_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90216_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90207_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90210_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_90205_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_50603_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51427_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51403_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51420_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51418_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_61315_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_51904_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41601_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41604_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41608_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41602_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41613_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_41618_ESTCommissionStatement.pdf</t>
-  </si>
-  <si>
-    <t>201808_20417_ESTCommissionStatement.pdf</t>
+    <t>Wayne.Sakowsky@henryschein.ca</t>
+  </si>
+  <si>
+    <t>EST Commission Summary for September 2018</t>
+  </si>
+  <si>
+    <t>201809_61313_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51423_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90203_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41620_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41647_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41810_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41646_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51422_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41803_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41801_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90201_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41632_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41614_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41644_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41802_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41643_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41607_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90209_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51421_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41626_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51908_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_61311_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_61308_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_20410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51909_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_61320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_50605_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41657_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41818_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51441_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41819_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60410_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60406_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60405_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40307_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_25006_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78005_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78004_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_30604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_25010_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78012_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_20413_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40319_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40320_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60426_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40322_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_30613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_20414_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78018_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_30615_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_20415_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40328_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78023_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60431_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60432_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_30617_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78024_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40332_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40334_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_25013_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78028_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40316_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_78029_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_40335_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_60435_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41671_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41674_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41678_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90215_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90219_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41682_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_61327_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51461_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_70902_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41693_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_61331_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90216_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90207_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90210_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_90205_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_50603_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51427_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51403_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51420_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51418_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_61315_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_51904_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41601_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41604_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41608_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41602_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41613_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_41618_ESTCommissionStatement.pdf</t>
+  </si>
+  <si>
+    <t>201809_20417_ESTCommissionStatement.pdf</t>
   </si>
 </sst>
 </file>
@@ -1072,10 +1072,10 @@
       </c>
       <c r="G2" t="str">
         <f>$K2&amp;"\"&amp;L2</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L2" t="s">
         <v>113</v>
@@ -1100,10 +1100,10 @@
       </c>
       <c r="G3" t="str">
         <f t="shared" ref="G3:G66" si="0">$K3&amp;"\"&amp;L3</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61313_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61313_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L3" t="s">
         <v>113</v>
@@ -1128,10 +1128,10 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51423_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51423_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L4" t="s">
         <v>114</v>
@@ -1156,10 +1156,10 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90203_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90203_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L5" t="s">
         <v>115</v>
@@ -1184,10 +1184,10 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41620_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41620_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L6" t="s">
         <v>116</v>
@@ -1212,10 +1212,10 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41647_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41647_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L7" t="s">
         <v>117</v>
@@ -1240,10 +1240,10 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41810_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41810_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K8" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L8" t="s">
         <v>118</v>
@@ -1268,10 +1268,10 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41646_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41646_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K9" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L9" t="s">
         <v>119</v>
@@ -1296,10 +1296,10 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51422_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51422_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K10" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L10" t="s">
         <v>120</v>
@@ -1324,10 +1324,10 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41803_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41803_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L11" t="s">
         <v>121</v>
@@ -1352,10 +1352,10 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41801_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41801_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L12" t="s">
         <v>122</v>
@@ -1380,10 +1380,10 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90201_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90201_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L13" t="s">
         <v>123</v>
@@ -1408,10 +1408,10 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41632_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41632_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L14" t="s">
         <v>124</v>
@@ -1436,10 +1436,10 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41614_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41614_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L15" t="s">
         <v>125</v>
@@ -1464,10 +1464,10 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41644_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41644_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L16" t="s">
         <v>126</v>
@@ -1492,10 +1492,10 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41802_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41802_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L17" t="s">
         <v>127</v>
@@ -1520,10 +1520,10 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41643_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41643_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L18" t="s">
         <v>128</v>
@@ -1548,10 +1548,10 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41607_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41607_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L19" t="s">
         <v>129</v>
@@ -1575,10 +1575,10 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90209_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90209_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L20" t="s">
         <v>130</v>
@@ -1602,10 +1602,10 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51421_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51421_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L21" t="s">
         <v>131</v>
@@ -1629,10 +1629,10 @@
       </c>
       <c r="G22" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41626_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41626_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L22" t="s">
         <v>132</v>
@@ -1656,10 +1656,10 @@
       </c>
       <c r="G23" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51908_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51908_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L23" t="s">
         <v>133</v>
@@ -1683,10 +1683,10 @@
       </c>
       <c r="G24" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61311_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61311_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L24" t="s">
         <v>134</v>
@@ -1710,10 +1710,10 @@
       </c>
       <c r="G25" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61308_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61308_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L25" t="s">
         <v>135</v>
@@ -1737,10 +1737,10 @@
       </c>
       <c r="G26" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_20410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L26" t="s">
         <v>136</v>
@@ -1764,10 +1764,10 @@
       </c>
       <c r="G27" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51909_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51909_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L27" t="s">
         <v>137</v>
@@ -1791,10 +1791,10 @@
       </c>
       <c r="G28" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L28" t="s">
         <v>138</v>
@@ -1818,10 +1818,10 @@
       </c>
       <c r="G29" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_50605_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_50605_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L29" t="s">
         <v>139</v>
@@ -1845,10 +1845,10 @@
       </c>
       <c r="G30" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41657_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41657_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L30" t="s">
         <v>140</v>
@@ -1872,10 +1872,10 @@
       </c>
       <c r="G31" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41816_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41818_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L31" t="s">
         <v>141</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
       <c r="C32" t="s">
         <v>49</v>
@@ -1899,10 +1899,10 @@
       </c>
       <c r="G32" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41818_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51441_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L32" t="s">
         <v>142</v>
@@ -1910,7 +1910,7 @@
     </row>
     <row r="33" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="C33" t="s">
         <v>49</v>
@@ -1926,10 +1926,10 @@
       </c>
       <c r="G33" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51441_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41819_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L33" t="s">
         <v>143</v>
@@ -1937,7 +1937,7 @@
     </row>
     <row r="34" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
         <v>49</v>
@@ -1953,10 +1953,10 @@
       </c>
       <c r="G34" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41819_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60410_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L34" t="s">
         <v>144</v>
@@ -1980,10 +1980,10 @@
       </c>
       <c r="G35" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60410_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L35" t="s">
         <v>145</v>
@@ -2007,10 +2007,10 @@
       </c>
       <c r="G36" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60406_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L36" t="s">
         <v>146</v>
@@ -2034,10 +2034,10 @@
       </c>
       <c r="G37" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60406_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60405_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L37" t="s">
         <v>147</v>
@@ -2045,7 +2045,7 @@
     </row>
     <row r="38" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>67</v>
+        <v>30</v>
       </c>
       <c r="C38" t="s">
         <v>49</v>
@@ -2061,10 +2061,10 @@
       </c>
       <c r="G38" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60405_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40307_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L38" t="s">
         <v>148</v>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="39" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C39" t="s">
         <v>49</v>
@@ -2088,10 +2088,10 @@
       </c>
       <c r="G39" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40307_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L39" t="s">
         <v>149</v>
@@ -2115,10 +2115,10 @@
       </c>
       <c r="G40" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_25006_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L40" t="s">
         <v>150</v>
@@ -2126,7 +2126,7 @@
     </row>
     <row r="41" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>69</v>
+        <v>31</v>
       </c>
       <c r="C41" t="s">
         <v>49</v>
@@ -2142,10 +2142,10 @@
       </c>
       <c r="G41" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_25006_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78005_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L41" t="s">
         <v>151</v>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="42" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C42" t="s">
         <v>49</v>
@@ -2169,10 +2169,10 @@
       </c>
       <c r="G42" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78005_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78004_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L42" t="s">
         <v>152</v>
@@ -2180,7 +2180,7 @@
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>32</v>
+        <v>111</v>
       </c>
       <c r="C43" t="s">
         <v>49</v>
@@ -2196,10 +2196,10 @@
       </c>
       <c r="G43" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78004_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_30604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L43" t="s">
         <v>153</v>
@@ -2223,10 +2223,10 @@
       </c>
       <c r="G44" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_25010_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_25010_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K44" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L44" t="s">
         <v>154</v>
@@ -2250,10 +2250,10 @@
       </c>
       <c r="G45" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78012_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78012_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L45" t="s">
         <v>155</v>
@@ -2261,7 +2261,7 @@
     </row>
     <row r="46" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C46" t="s">
         <v>49</v>
@@ -2277,10 +2277,10 @@
       </c>
       <c r="G46" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20413_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_20413_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K46" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L46" t="s">
         <v>156</v>
@@ -2288,7 +2288,7 @@
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C47" t="s">
         <v>49</v>
@@ -2304,10 +2304,10 @@
       </c>
       <c r="G47" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40319_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40319_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K47" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L47" t="s">
         <v>157</v>
@@ -2315,7 +2315,7 @@
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C48" t="s">
         <v>49</v>
@@ -2331,10 +2331,10 @@
       </c>
       <c r="G48" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40320_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40320_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K48" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L48" t="s">
         <v>158</v>
@@ -2342,7 +2342,7 @@
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C49" t="s">
         <v>49</v>
@@ -2358,10 +2358,10 @@
       </c>
       <c r="G49" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60426_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60426_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K49" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L49" t="s">
         <v>159</v>
@@ -2369,7 +2369,7 @@
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C50" t="s">
         <v>49</v>
@@ -2385,10 +2385,10 @@
       </c>
       <c r="G50" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40322_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40322_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L50" t="s">
         <v>160</v>
@@ -2396,7 +2396,7 @@
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s">
         <v>49</v>
@@ -2412,10 +2412,10 @@
       </c>
       <c r="G51" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_30613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_30613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K51" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L51" t="s">
         <v>161</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C52" t="s">
         <v>49</v>
@@ -2439,10 +2439,10 @@
       </c>
       <c r="G52" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20414_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_20414_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L52" t="s">
         <v>162</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="53" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B53" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C53" t="s">
         <v>49</v>
@@ -2466,10 +2466,10 @@
       </c>
       <c r="G53" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78018_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78018_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L53" t="s">
         <v>163</v>
@@ -2477,7 +2477,7 @@
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C54" t="s">
         <v>49</v>
@@ -2493,10 +2493,10 @@
       </c>
       <c r="G54" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_30615_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_30615_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K54" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L54" t="s">
         <v>164</v>
@@ -2504,7 +2504,7 @@
     </row>
     <row r="55" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C55" t="s">
         <v>49</v>
@@ -2520,10 +2520,10 @@
       </c>
       <c r="G55" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20415_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_20415_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K55" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L55" t="s">
         <v>165</v>
@@ -2531,7 +2531,7 @@
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C56" t="s">
         <v>49</v>
@@ -2547,10 +2547,10 @@
       </c>
       <c r="G56" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40328_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40328_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K56" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L56" t="s">
         <v>166</v>
@@ -2558,7 +2558,7 @@
     </row>
     <row r="57" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" t="s">
         <v>49</v>
@@ -2574,10 +2574,10 @@
       </c>
       <c r="G57" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78023_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78023_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L57" t="s">
         <v>167</v>
@@ -2585,7 +2585,7 @@
     </row>
     <row r="58" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C58" t="s">
         <v>49</v>
@@ -2601,10 +2601,10 @@
       </c>
       <c r="G58" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60431_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60431_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L58" t="s">
         <v>168</v>
@@ -2612,7 +2612,7 @@
     </row>
     <row r="59" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C59" t="s">
         <v>49</v>
@@ -2628,10 +2628,10 @@
       </c>
       <c r="G59" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60432_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60432_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K59" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L59" t="s">
         <v>169</v>
@@ -2639,7 +2639,7 @@
     </row>
     <row r="60" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C60" t="s">
         <v>49</v>
@@ -2655,10 +2655,10 @@
       </c>
       <c r="G60" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_30617_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_30617_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L60" t="s">
         <v>170</v>
@@ -2666,7 +2666,7 @@
     </row>
     <row r="61" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C61" t="s">
         <v>49</v>
@@ -2682,10 +2682,10 @@
       </c>
       <c r="G61" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78024_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78024_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L61" t="s">
         <v>171</v>
@@ -2693,7 +2693,7 @@
     </row>
     <row r="62" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C62" t="s">
         <v>49</v>
@@ -2709,10 +2709,10 @@
       </c>
       <c r="G62" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L62" t="s">
         <v>172</v>
@@ -2720,7 +2720,7 @@
     </row>
     <row r="63" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C63" t="s">
         <v>49</v>
@@ -2736,10 +2736,10 @@
       </c>
       <c r="G63" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40332_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40332_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L63" t="s">
         <v>173</v>
@@ -2747,7 +2747,7 @@
     </row>
     <row r="64" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B64" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C64" t="s">
         <v>49</v>
@@ -2763,10 +2763,10 @@
       </c>
       <c r="G64" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40334_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40334_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L64" t="s">
         <v>174</v>
@@ -2774,7 +2774,7 @@
     </row>
     <row r="65" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
         <v>49</v>
@@ -2790,10 +2790,10 @@
       </c>
       <c r="G65" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_25013_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_25013_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L65" t="s">
         <v>175</v>
@@ -2801,7 +2801,7 @@
     </row>
     <row r="66" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C66" t="s">
         <v>49</v>
@@ -2817,10 +2817,10 @@
       </c>
       <c r="G66" t="str">
         <f t="shared" si="0"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78028_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78028_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L66" t="s">
         <v>176</v>
@@ -2828,7 +2828,7 @@
     </row>
     <row r="67" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C67" t="s">
         <v>49</v>
@@ -2844,10 +2844,10 @@
       </c>
       <c r="G67" t="str">
         <f t="shared" ref="G67:G99" si="1">$K67&amp;"\"&amp;L67</f>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40316_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40316_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L67" t="s">
         <v>177</v>
@@ -2855,7 +2855,7 @@
     </row>
     <row r="68" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C68" t="s">
         <v>49</v>
@@ -2871,10 +2871,10 @@
       </c>
       <c r="G68" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_78029_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_78029_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L68" t="s">
         <v>178</v>
@@ -2882,7 +2882,7 @@
     </row>
     <row r="69" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C69" t="s">
         <v>49</v>
@@ -2898,10 +2898,10 @@
       </c>
       <c r="G69" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_40335_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_40335_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L69" t="s">
         <v>179</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="70" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C70" t="s">
         <v>49</v>
@@ -2925,10 +2925,10 @@
       </c>
       <c r="G70" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_60435_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_60435_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K70" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L70" t="s">
         <v>180</v>
@@ -2936,7 +2936,7 @@
     </row>
     <row r="71" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C71" t="s">
         <v>49</v>
@@ -2952,10 +2952,10 @@
       </c>
       <c r="G71" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41671_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41671_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K71" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L71" t="s">
         <v>181</v>
@@ -2963,7 +2963,7 @@
     </row>
     <row r="72" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C72" t="s">
         <v>49</v>
@@ -2979,10 +2979,10 @@
       </c>
       <c r="G72" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41674_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41674_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K72" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L72" t="s">
         <v>182</v>
@@ -2990,7 +2990,7 @@
     </row>
     <row r="73" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C73" t="s">
         <v>49</v>
@@ -3006,10 +3006,10 @@
       </c>
       <c r="G73" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41678_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41678_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K73" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L73" t="s">
         <v>183</v>
@@ -3017,7 +3017,7 @@
     </row>
     <row r="74" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C74" t="s">
         <v>49</v>
@@ -3033,10 +3033,10 @@
       </c>
       <c r="G74" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90215_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90215_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K74" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L74" t="s">
         <v>184</v>
@@ -3044,7 +3044,7 @@
     </row>
     <row r="75" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C75" t="s">
         <v>49</v>
@@ -3060,10 +3060,10 @@
       </c>
       <c r="G75" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90219_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90219_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K75" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L75" t="s">
         <v>185</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="76" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C76" t="s">
         <v>49</v>
@@ -3087,10 +3087,10 @@
       </c>
       <c r="G76" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41682_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41682_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K76" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L76" t="s">
         <v>186</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="77" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C77" t="s">
         <v>49</v>
@@ -3114,10 +3114,10 @@
       </c>
       <c r="G77" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61327_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61327_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K77" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L77" t="s">
         <v>187</v>
@@ -3125,7 +3125,7 @@
     </row>
     <row r="78" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C78" t="s">
         <v>49</v>
@@ -3141,10 +3141,10 @@
       </c>
       <c r="G78" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51461_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51461_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K78" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L78" t="s">
         <v>188</v>
@@ -3152,7 +3152,7 @@
     </row>
     <row r="79" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C79" t="s">
         <v>49</v>
@@ -3168,10 +3168,10 @@
       </c>
       <c r="G79" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_70902_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_70902_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K79" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L79" t="s">
         <v>189</v>
@@ -3179,7 +3179,7 @@
     </row>
     <row r="80" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C80" t="s">
         <v>49</v>
@@ -3195,10 +3195,10 @@
       </c>
       <c r="G80" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41693_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41693_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K80" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L80" t="s">
         <v>190</v>
@@ -3206,7 +3206,7 @@
     </row>
     <row r="81" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C81" t="s">
         <v>49</v>
@@ -3222,10 +3222,10 @@
       </c>
       <c r="G81" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61331_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61331_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K81" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L81" t="s">
         <v>191</v>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="82" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C82" t="s">
         <v>49</v>
@@ -3249,10 +3249,10 @@
       </c>
       <c r="G82" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90216_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90216_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K82" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L82" t="s">
         <v>192</v>
@@ -3276,10 +3276,10 @@
       </c>
       <c r="G83" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90207_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90207_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K83" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L83" t="s">
         <v>193</v>
@@ -3287,7 +3287,7 @@
     </row>
     <row r="84" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C84" t="s">
         <v>49</v>
@@ -3303,10 +3303,10 @@
       </c>
       <c r="G84" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90210_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90210_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K84" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L84" t="s">
         <v>194</v>
@@ -3330,10 +3330,10 @@
       </c>
       <c r="G85" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_90205_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_90205_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K85" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L85" t="s">
         <v>195</v>
@@ -3357,10 +3357,10 @@
       </c>
       <c r="G86" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_50603_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_50603_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K86" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L86" t="s">
         <v>196</v>
@@ -3384,10 +3384,10 @@
       </c>
       <c r="G87" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51427_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51427_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K87" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L87" t="s">
         <v>197</v>
@@ -3411,10 +3411,10 @@
       </c>
       <c r="G88" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51403_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51403_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K88" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L88" t="s">
         <v>198</v>
@@ -3438,10 +3438,10 @@
       </c>
       <c r="G89" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51420_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51420_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K89" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L89" t="s">
         <v>199</v>
@@ -3465,10 +3465,10 @@
       </c>
       <c r="G90" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51418_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51418_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K90" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L90" t="s">
         <v>200</v>
@@ -3492,10 +3492,10 @@
       </c>
       <c r="G91" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_61315_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_61315_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K91" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L91" t="s">
         <v>201</v>
@@ -3519,10 +3519,10 @@
       </c>
       <c r="G92" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_51904_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_51904_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K92" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L92" t="s">
         <v>202</v>
@@ -3546,10 +3546,10 @@
       </c>
       <c r="G93" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41601_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41601_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L93" t="s">
         <v>203</v>
@@ -3573,10 +3573,10 @@
       </c>
       <c r="G94" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41604_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41604_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L94" t="s">
         <v>204</v>
@@ -3600,10 +3600,10 @@
       </c>
       <c r="G95" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41608_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41608_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K95" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L95" t="s">
         <v>205</v>
@@ -3627,10 +3627,10 @@
       </c>
       <c r="G96" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41602_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41602_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K96" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L96" t="s">
         <v>206</v>
@@ -3654,10 +3654,10 @@
       </c>
       <c r="G97" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41613_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41613_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K97" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L97" t="s">
         <v>207</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="98" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C98" t="s">
         <v>49</v>
@@ -3681,10 +3681,10 @@
       </c>
       <c r="G98" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_41618_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_41618_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K98" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L98" t="s">
         <v>208</v>
@@ -3692,7 +3692,7 @@
     </row>
     <row r="99" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" t="s">
         <v>49</v>
@@ -3708,10 +3708,10 @@
       </c>
       <c r="G99" t="str">
         <f t="shared" si="1"/>
-        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201808_20417_ESTCommissionStatement.pdf</v>
+        <v>S:\BR\Utilities\Email Master Send\ETU_EST_Comm\201809_20417_ESTCommissionStatement.pdf</v>
       </c>
       <c r="K99" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L99" t="s">
         <v>209</v>
